--- a/form_reporting_templates/Form-1RC.xlsx
+++ b/form_reporting_templates/Form-1RC.xlsx
@@ -8,10 +8,10 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\dev\git\BitBucket workspaces\IOTC-ws\Data dissemination\iotc-reference-forms\form_reporting_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33705177-1CE1-406B-998C-DB3602343FBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{674B27AF-BDF0-4D53-B38E-F90954F10CB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="5O4euoXp3wZfikUhVbwGMfw3acpHwF0QGHqLGhqkSE4QfnoccY7VPEsDDzzEBP5NB49UT+XbcZf1lZQTbDpLFA==" workbookSaltValue="DtEOIJKZ9UKP8oWrD+QpRw==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="1140" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="1" r:id="rId1"/>
@@ -81,9 +81,6 @@
     <t>Form</t>
   </si>
   <si>
-    <t>1-RC</t>
-  </si>
-  <si>
     <t>Source</t>
   </si>
   <si>
@@ -99,12 +96,6 @@
     <t>Source coverage</t>
   </si>
   <si>
-    <t>IOTC form 1-RC | data</t>
-  </si>
-  <si>
-    <t>IOTC form 1-RC | metadata</t>
-  </si>
-  <si>
     <t>Retain reason</t>
   </si>
   <si>
@@ -130,6 +121,15 @@
   </si>
   <si>
     <t>1.0.0</t>
+  </si>
+  <si>
+    <t>IOTC Form 1RC | metadata</t>
+  </si>
+  <si>
+    <t>1RC</t>
+  </si>
+  <si>
+    <t>IOTC Form 1RC | data</t>
   </si>
 </sst>
 </file>
@@ -1156,7 +1156,7 @@
     <row r="1" spans="2:8" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="61" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C2" s="62"/>
       <c r="D2" s="62"/>
@@ -1180,14 +1180,14 @@
         <v>13</v>
       </c>
       <c r="D4" s="19" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G4" s="20" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H4" s="4"/>
     </row>
@@ -1228,7 +1228,7 @@
       <c r="D8" s="60"/>
       <c r="E8" s="6"/>
       <c r="F8" s="60" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="G8" s="60"/>
       <c r="H8" s="7"/>
@@ -1249,12 +1249,12 @@
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10" s="5"/>
       <c r="C10" s="9" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D10" s="23"/>
       <c r="E10" s="6"/>
       <c r="F10" s="6" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G10" s="23"/>
       <c r="H10" s="7"/>
@@ -1271,7 +1271,7 @@
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B12" s="5"/>
       <c r="C12" s="9" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D12" s="33"/>
       <c r="E12" s="6"/>
@@ -1342,7 +1342,7 @@
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" s="5"/>
       <c r="C19" s="34" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D19" s="32"/>
       <c r="E19" s="6"/>
@@ -1422,7 +1422,7 @@
       <c r="D27" s="22"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="H1quqxzJN19tIkuMnjjEvqyySGD1rWkCmwNNtJAN7QFSY0zOapwN7ZWz2gWIvVI1dAc/GZtnETSrHJWbeFO6ng==" saltValue="KVb7qRLBNzgj+LWV3z54nQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="xv53QTSUleV7nylk/DTdF0s1BGNdvr3TXClBIwnNpmqd3WMflgJKBp8kjbRn5tLQnKsV/5nn9DTs+sMRq1HfNA==" saltValue="nOejNaQHLYD569UVVW+WEA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="4">
     <mergeCell ref="C25:G25"/>
     <mergeCell ref="C8:D8"/>
@@ -1475,7 +1475,7 @@
     <row r="1" spans="1:110" customFormat="1" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:110" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="61" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C2" s="62"/>
       <c r="D2" s="62"/>
@@ -1701,22 +1701,22 @@
     <row r="4" spans="1:110" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="31"/>
       <c r="B4" s="67" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C4" s="68"/>
       <c r="D4" s="68"/>
       <c r="E4" s="69"/>
       <c r="F4" s="67" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G4" s="68"/>
       <c r="H4" s="69"/>
       <c r="I4" s="67" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J4" s="69"/>
       <c r="K4" s="70" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L4" s="71"/>
       <c r="M4" s="71"/>
@@ -1826,25 +1826,25 @@
         <v>6</v>
       </c>
       <c r="D5" s="37" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E5" s="38" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F5" s="56" t="s">
         <v>12</v>
       </c>
       <c r="G5" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" s="38" t="s">
         <v>15</v>
-      </c>
-      <c r="H5" s="38" t="s">
-        <v>16</v>
       </c>
       <c r="I5" s="40" t="s">
         <v>12</v>
       </c>
       <c r="J5" s="41" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="K5" s="42"/>
       <c r="L5" s="43"/>
@@ -2598,7 +2598,7 @@
       <c r="J55" s="55"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="77R9qW0AYilzOg7nK2+Zn1pyLKA3TI96g3Sflm+fwd7N5XnTcK9gtNTeJ5ajK3yEdp+R2qzyLbFRpkb9ezqWJQ==" saltValue="AJML4ETEGQTk3R1k+b3oHg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="Z0JensQhetTSI4u5xj6EF5S9AtGWu2hbU4qu3NbXMa3/h2cd5mizsWPZXEOjuBhPCg4iC8Lk/4iQAzTSBc7JGg==" saltValue="h/2YkbuLwCwUeswRXBiG5g==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="5">
     <mergeCell ref="F4:H4"/>
     <mergeCell ref="I4:J4"/>

--- a/form_reporting_templates/Form-1RC.xlsx
+++ b/form_reporting_templates/Form-1RC.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\dev\git\BitBucket workspaces\IOTC-ws\Data dissemination\iotc-reference-forms\form_reporting_templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\echassot\Desktop\iotc-reference-forms\form_reporting_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{674B27AF-BDF0-4D53-B38E-F90954F10CB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8E8593F-E409-4C85-8206-715CC93EC887}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="5O4euoXp3wZfikUhVbwGMfw3acpHwF0QGHqLGhqkSE4QfnoccY7VPEsDDzzEBP5NB49UT+XbcZf1lZQTbDpLFA==" workbookSaltValue="DtEOIJKZ9UKP8oWrD+QpRw==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
@@ -51,9 +51,6 @@
     <t>General information</t>
   </si>
   <si>
-    <t>Flag country</t>
-  </si>
-  <si>
     <t>Reporting year</t>
   </si>
   <si>
@@ -130,6 +127,9 @@
   </si>
   <si>
     <t>IOTC Form 1RC | data</t>
+  </si>
+  <si>
+    <t>Flag state</t>
   </si>
 </sst>
 </file>
@@ -1156,7 +1156,7 @@
     <row r="1" spans="2:8" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="61" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C2" s="62"/>
       <c r="D2" s="62"/>
@@ -1177,17 +1177,17 @@
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D4" s="19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G4" s="20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H4" s="4"/>
     </row>
@@ -1203,7 +1203,7 @@
     <row r="6" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B6" s="5"/>
       <c r="C6" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
@@ -1228,7 +1228,7 @@
       <c r="D8" s="60"/>
       <c r="E8" s="6"/>
       <c r="F8" s="60" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G8" s="60"/>
       <c r="H8" s="7"/>
@@ -1249,12 +1249,12 @@
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10" s="5"/>
       <c r="C10" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D10" s="23"/>
       <c r="E10" s="6"/>
       <c r="F10" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G10" s="23"/>
       <c r="H10" s="7"/>
@@ -1271,7 +1271,7 @@
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B12" s="5"/>
       <c r="C12" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D12" s="33"/>
       <c r="E12" s="6"/>
@@ -1282,7 +1282,7 @@
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B13" s="5"/>
       <c r="C13" s="9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D13" s="33"/>
       <c r="E13" s="6"/>
@@ -1331,7 +1331,7 @@
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" s="5"/>
       <c r="C18" s="9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D18" s="32"/>
       <c r="E18" s="6"/>
@@ -1342,7 +1342,7 @@
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" s="5"/>
       <c r="C19" s="34" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D19" s="32"/>
       <c r="E19" s="6"/>
@@ -1353,7 +1353,7 @@
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" s="5"/>
       <c r="C20" s="35" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="D20" s="32"/>
       <c r="E20" s="6"/>
@@ -1382,7 +1382,7 @@
     <row r="23" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B23" s="5"/>
       <c r="C23" s="8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D23" s="10"/>
       <c r="E23" s="6"/>
@@ -1422,7 +1422,7 @@
       <c r="D27" s="22"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="xv53QTSUleV7nylk/DTdF0s1BGNdvr3TXClBIwnNpmqd3WMflgJKBp8kjbRn5tLQnKsV/5nn9DTs+sMRq1HfNA==" saltValue="nOejNaQHLYD569UVVW+WEA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="L8Wxu1UXpE9n0xWoQQ687dObHoGr5aK1NBMLjtDuH8vP9ho3v0inkj9H++l/DdJx+55dwz0LAJFegsoIaa7nrg==" saltValue="dkIq3ZtCYwzIA56bdihxPw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="4">
     <mergeCell ref="C25:G25"/>
     <mergeCell ref="C8:D8"/>
@@ -1436,7 +1436,7 @@
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="C19" r:id="rId1" location="entities" xr:uid="{C8E8FB11-F219-464A-BC2B-3DAE2B40B804}"/>
-    <hyperlink ref="C20" r:id="rId2" location="countries" xr:uid="{9812E6C2-BEE5-4C23-9A3D-B1B015FBD415}"/>
+    <hyperlink ref="C20" r:id="rId2" location="countries" display="Flag country" xr:uid="{9812E6C2-BEE5-4C23-9A3D-B1B015FBD415}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
@@ -1475,7 +1475,7 @@
     <row r="1" spans="1:110" customFormat="1" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:110" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="61" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C2" s="62"/>
       <c r="D2" s="62"/>
@@ -1701,22 +1701,22 @@
     <row r="4" spans="1:110" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="31"/>
       <c r="B4" s="67" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C4" s="68"/>
       <c r="D4" s="68"/>
       <c r="E4" s="69"/>
       <c r="F4" s="67" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G4" s="68"/>
       <c r="H4" s="69"/>
       <c r="I4" s="67" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J4" s="69"/>
       <c r="K4" s="70" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L4" s="71"/>
       <c r="M4" s="71"/>
@@ -1820,31 +1820,31 @@
     </row>
     <row r="5" spans="1:110" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="37" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="38" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="37" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="37" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" s="38" t="s">
+      <c r="G5" s="39" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="I5" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="J5" s="41" t="s">
         <v>19</v>
-      </c>
-      <c r="F5" s="56" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" s="39" t="s">
-        <v>14</v>
-      </c>
-      <c r="H5" s="38" t="s">
-        <v>15</v>
-      </c>
-      <c r="I5" s="40" t="s">
-        <v>12</v>
-      </c>
-      <c r="J5" s="41" t="s">
-        <v>20</v>
       </c>
       <c r="K5" s="42"/>
       <c r="L5" s="43"/>

--- a/form_reporting_templates/Form-1RC.xlsx
+++ b/form_reporting_templates/Form-1RC.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\echassot\Desktop\iotc-reference-forms\form_reporting_templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\dev\git\BitBucket workspaces\IOTC-ws\Data dissemination\iotc-reference-forms\form_reporting_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8E8593F-E409-4C85-8206-715CC93EC887}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71BD8E1F-11EE-4878-9644-35817AC50DD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="5O4euoXp3wZfikUhVbwGMfw3acpHwF0QGHqLGhqkSE4QfnoccY7VPEsDDzzEBP5NB49UT+XbcZf1lZQTbDpLFA==" workbookSaltValue="DtEOIJKZ9UKP8oWrD+QpRw==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
@@ -99,9 +99,6 @@
     <t>%</t>
   </si>
   <si>
-    <t>Main stratum</t>
-  </si>
-  <si>
     <t>IOTC area</t>
   </si>
   <si>
@@ -130,6 +127,9 @@
   </si>
   <si>
     <t>Flag state</t>
+  </si>
+  <si>
+    <t>Main elements</t>
   </si>
 </sst>
 </file>
@@ -1156,7 +1156,7 @@
     <row r="1" spans="2:8" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="61" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C2" s="62"/>
       <c r="D2" s="62"/>
@@ -1180,14 +1180,14 @@
         <v>12</v>
       </c>
       <c r="D4" s="19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G4" s="20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H4" s="4"/>
     </row>
@@ -1228,7 +1228,7 @@
       <c r="D8" s="60"/>
       <c r="E8" s="6"/>
       <c r="F8" s="60" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G8" s="60"/>
       <c r="H8" s="7"/>
@@ -1249,12 +1249,12 @@
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10" s="5"/>
       <c r="C10" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D10" s="23"/>
       <c r="E10" s="6"/>
       <c r="F10" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G10" s="23"/>
       <c r="H10" s="7"/>
@@ -1271,7 +1271,7 @@
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B12" s="5"/>
       <c r="C12" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D12" s="33"/>
       <c r="E12" s="6"/>
@@ -1342,7 +1342,7 @@
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" s="5"/>
       <c r="C19" s="34" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D19" s="32"/>
       <c r="E19" s="6"/>
@@ -1353,7 +1353,7 @@
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" s="5"/>
       <c r="C20" s="35" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D20" s="32"/>
       <c r="E20" s="6"/>
@@ -1475,7 +1475,7 @@
     <row r="1" spans="1:110" customFormat="1" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:110" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="61" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2" s="62"/>
       <c r="D2" s="62"/>
@@ -1701,7 +1701,7 @@
     <row r="4" spans="1:110" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="31"/>
       <c r="B4" s="67" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C4" s="68"/>
       <c r="D4" s="68"/>
@@ -1826,7 +1826,7 @@
         <v>5</v>
       </c>
       <c r="D5" s="37" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E5" s="38" t="s">
         <v>18</v>
@@ -2598,7 +2598,7 @@
       <c r="J55" s="55"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="Z0JensQhetTSI4u5xj6EF5S9AtGWu2hbU4qu3NbXMa3/h2cd5mizsWPZXEOjuBhPCg4iC8Lk/4iQAzTSBc7JGg==" saltValue="h/2YkbuLwCwUeswRXBiG5g==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="7XAfTOfc+sBqkuQ9NMYhtcvbOVr9aQ3YSsWmSL9GkTbZFcVpvOSA+WAxmh/Po06uIkGmJJmRMnp2MoJqDR3gFg==" saltValue="Hk1X5xVKsFopfVeClRyi8w==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="5">
     <mergeCell ref="F4:H4"/>
     <mergeCell ref="I4:J4"/>

--- a/form_reporting_templates/Form-1RC.xlsx
+++ b/form_reporting_templates/Form-1RC.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\dev\git\BitBucket workspaces\IOTC-ws\Data dissemination\iotc-reference-forms\form_reporting_templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\iotc-reference-forms\form_reporting_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71BD8E1F-11EE-4878-9644-35817AC50DD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{084EAE0A-EDD2-42C5-ADAE-165A926A9E8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="5O4euoXp3wZfikUhVbwGMfw3acpHwF0QGHqLGhqkSE4QfnoccY7VPEsDDzzEBP5NB49UT+XbcZf1lZQTbDpLFA==" workbookSaltValue="DtEOIJKZ9UKP8oWrD+QpRw==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="1" r:id="rId1"/>
@@ -2598,7 +2598,7 @@
       <c r="J55" s="55"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="7XAfTOfc+sBqkuQ9NMYhtcvbOVr9aQ3YSsWmSL9GkTbZFcVpvOSA+WAxmh/Po06uIkGmJJmRMnp2MoJqDR3gFg==" saltValue="Hk1X5xVKsFopfVeClRyi8w==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection selectLockedCells="1"/>
   <mergeCells count="5">
     <mergeCell ref="F4:H4"/>
     <mergeCell ref="I4:J4"/>

--- a/form_reporting_templates/Form-1RC.xlsx
+++ b/form_reporting_templates/Form-1RC.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\iotc-reference-forms\form_reporting_templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\echassot\Desktop\iotc-reference-forms\form_reporting_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{084EAE0A-EDD2-42C5-ADAE-165A926A9E8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E54DC65-FF5D-4B34-B507-B0AC53847B85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="5O4euoXp3wZfikUhVbwGMfw3acpHwF0QGHqLGhqkSE4QfnoccY7VPEsDDzzEBP5NB49UT+XbcZf1lZQTbDpLFA==" workbookSaltValue="DtEOIJKZ9UKP8oWrD+QpRw==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="1" r:id="rId1"/>
@@ -137,8 +137,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy/mm/dd"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="167" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
@@ -668,10 +668,6 @@
       <alignment horizontal="center" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
@@ -812,6 +808,10 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -841,9 +841,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -881,7 +881,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -987,7 +987,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1129,7 +1129,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1155,24 +1155,24 @@
   <sheetData>
     <row r="1" spans="2:8" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="61" t="s">
+      <c r="B2" s="60" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="63"/>
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="61"/>
+      <c r="H2" s="62"/>
     </row>
     <row r="3" spans="2:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="64"/>
-      <c r="C3" s="65"/>
-      <c r="D3" s="65"/>
-      <c r="E3" s="65"/>
-      <c r="F3" s="65"/>
-      <c r="G3" s="65"/>
-      <c r="H3" s="66"/>
+      <c r="B3" s="63"/>
+      <c r="C3" s="64"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="64"/>
+      <c r="G3" s="64"/>
+      <c r="H3" s="65"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
@@ -1222,15 +1222,15 @@
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" s="5"/>
-      <c r="C8" s="60" t="s">
+      <c r="C8" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="D8" s="60"/>
+      <c r="D8" s="59"/>
       <c r="E8" s="6"/>
-      <c r="F8" s="60" t="s">
+      <c r="F8" s="59" t="s">
         <v>22</v>
       </c>
-      <c r="G8" s="60"/>
+      <c r="G8" s="59"/>
       <c r="H8" s="7"/>
     </row>
     <row r="9" spans="2:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -1273,7 +1273,7 @@
       <c r="C12" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="33"/>
+      <c r="D12" s="72"/>
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
       <c r="G12" s="6"/>
@@ -1284,7 +1284,7 @@
       <c r="C13" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="33"/>
+      <c r="D13" s="72"/>
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
@@ -1341,7 +1341,7 @@
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" s="5"/>
-      <c r="C19" s="34" t="s">
+      <c r="C19" s="33" t="s">
         <v>21</v>
       </c>
       <c r="D19" s="32"/>
@@ -1352,7 +1352,7 @@
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" s="5"/>
-      <c r="C20" s="35" t="s">
+      <c r="C20" s="34" t="s">
         <v>29</v>
       </c>
       <c r="D20" s="32"/>
@@ -1401,11 +1401,11 @@
     </row>
     <row r="25" spans="2:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="5"/>
-      <c r="C25" s="57"/>
-      <c r="D25" s="58"/>
-      <c r="E25" s="58"/>
-      <c r="F25" s="58"/>
-      <c r="G25" s="59"/>
+      <c r="C25" s="56"/>
+      <c r="D25" s="57"/>
+      <c r="E25" s="57"/>
+      <c r="F25" s="57"/>
+      <c r="G25" s="58"/>
       <c r="H25" s="7"/>
     </row>
     <row r="26" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1422,7 +1422,7 @@
       <c r="D27" s="22"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="L8Wxu1UXpE9n0xWoQQ687dObHoGr5aK1NBMLjtDuH8vP9ho3v0inkj9H++l/DdJx+55dwz0LAJFegsoIaa7nrg==" saltValue="dkIq3ZtCYwzIA56bdihxPw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="Zg16P6A1JdVUTWLnYRHpU/lYy/sFns21eg3L4DKmOSgAUetVWOTVnFrz/KwjujR5fmCLTtK85fwrre2HK4vozw==" saltValue="ohHu4KFfVOIre0+Y7VTJfg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="4">
     <mergeCell ref="C25:G25"/>
     <mergeCell ref="C8:D8"/>
@@ -1457,495 +1457,495 @@
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.85546875" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" style="45" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" style="46" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" style="46" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" style="47" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.42578125" style="45" customWidth="1"/>
-    <col min="7" max="7" width="11.42578125" style="46" customWidth="1"/>
-    <col min="8" max="8" width="11.42578125" style="47" customWidth="1"/>
-    <col min="9" max="9" width="11.42578125" style="45" customWidth="1"/>
-    <col min="10" max="10" width="11.42578125" style="53" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" style="51"/>
-    <col min="12" max="109" width="9.140625" style="52"/>
-    <col min="110" max="110" width="9.140625" style="53"/>
+    <col min="2" max="2" width="11.42578125" style="44" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" style="45" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" style="45" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" style="46" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" style="44" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" style="45" customWidth="1"/>
+    <col min="8" max="8" width="11.42578125" style="46" customWidth="1"/>
+    <col min="9" max="9" width="11.42578125" style="44" customWidth="1"/>
+    <col min="10" max="10" width="11.42578125" style="52" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" style="50"/>
+    <col min="12" max="109" width="9.140625" style="51"/>
+    <col min="110" max="110" width="9.140625" style="52"/>
     <col min="111" max="16384" width="9.140625" style="24"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:110" customFormat="1" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:110" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="61" t="s">
+      <c r="B2" s="60" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="62"/>
-      <c r="I2" s="62"/>
-      <c r="J2" s="62"/>
-      <c r="K2" s="62"/>
-      <c r="L2" s="62"/>
-      <c r="M2" s="62"/>
-      <c r="N2" s="62"/>
-      <c r="O2" s="62"/>
-      <c r="P2" s="62"/>
-      <c r="Q2" s="62"/>
-      <c r="R2" s="62"/>
-      <c r="S2" s="62"/>
-      <c r="T2" s="62"/>
-      <c r="U2" s="62"/>
-      <c r="V2" s="62"/>
-      <c r="W2" s="62"/>
-      <c r="X2" s="62"/>
-      <c r="Y2" s="62"/>
-      <c r="Z2" s="62"/>
-      <c r="AA2" s="62"/>
-      <c r="AB2" s="62"/>
-      <c r="AC2" s="62"/>
-      <c r="AD2" s="62"/>
-      <c r="AE2" s="62"/>
-      <c r="AF2" s="62"/>
-      <c r="AG2" s="62"/>
-      <c r="AH2" s="62"/>
-      <c r="AI2" s="62"/>
-      <c r="AJ2" s="62"/>
-      <c r="AK2" s="62"/>
-      <c r="AL2" s="62"/>
-      <c r="AM2" s="62"/>
-      <c r="AN2" s="62"/>
-      <c r="AO2" s="62"/>
-      <c r="AP2" s="62"/>
-      <c r="AQ2" s="62"/>
-      <c r="AR2" s="62"/>
-      <c r="AS2" s="62"/>
-      <c r="AT2" s="62"/>
-      <c r="AU2" s="62"/>
-      <c r="AV2" s="62"/>
-      <c r="AW2" s="62"/>
-      <c r="AX2" s="62"/>
-      <c r="AY2" s="62"/>
-      <c r="AZ2" s="62"/>
-      <c r="BA2" s="62"/>
-      <c r="BB2" s="62"/>
-      <c r="BC2" s="62"/>
-      <c r="BD2" s="62"/>
-      <c r="BE2" s="62"/>
-      <c r="BF2" s="62"/>
-      <c r="BG2" s="62"/>
-      <c r="BH2" s="62"/>
-      <c r="BI2" s="62"/>
-      <c r="BJ2" s="62"/>
-      <c r="BK2" s="62"/>
-      <c r="BL2" s="62"/>
-      <c r="BM2" s="62"/>
-      <c r="BN2" s="62"/>
-      <c r="BO2" s="62"/>
-      <c r="BP2" s="62"/>
-      <c r="BQ2" s="62"/>
-      <c r="BR2" s="62"/>
-      <c r="BS2" s="62"/>
-      <c r="BT2" s="62"/>
-      <c r="BU2" s="62"/>
-      <c r="BV2" s="62"/>
-      <c r="BW2" s="62"/>
-      <c r="BX2" s="62"/>
-      <c r="BY2" s="62"/>
-      <c r="BZ2" s="62"/>
-      <c r="CA2" s="62"/>
-      <c r="CB2" s="62"/>
-      <c r="CC2" s="62"/>
-      <c r="CD2" s="62"/>
-      <c r="CE2" s="62"/>
-      <c r="CF2" s="62"/>
-      <c r="CG2" s="62"/>
-      <c r="CH2" s="62"/>
-      <c r="CI2" s="62"/>
-      <c r="CJ2" s="62"/>
-      <c r="CK2" s="62"/>
-      <c r="CL2" s="62"/>
-      <c r="CM2" s="62"/>
-      <c r="CN2" s="62"/>
-      <c r="CO2" s="62"/>
-      <c r="CP2" s="62"/>
-      <c r="CQ2" s="62"/>
-      <c r="CR2" s="62"/>
-      <c r="CS2" s="62"/>
-      <c r="CT2" s="62"/>
-      <c r="CU2" s="62"/>
-      <c r="CV2" s="62"/>
-      <c r="CW2" s="62"/>
-      <c r="CX2" s="62"/>
-      <c r="CY2" s="62"/>
-      <c r="CZ2" s="62"/>
-      <c r="DA2" s="62"/>
-      <c r="DB2" s="62"/>
-      <c r="DC2" s="62"/>
-      <c r="DD2" s="62"/>
-      <c r="DE2" s="62"/>
-      <c r="DF2" s="63"/>
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="61"/>
+      <c r="H2" s="61"/>
+      <c r="I2" s="61"/>
+      <c r="J2" s="61"/>
+      <c r="K2" s="61"/>
+      <c r="L2" s="61"/>
+      <c r="M2" s="61"/>
+      <c r="N2" s="61"/>
+      <c r="O2" s="61"/>
+      <c r="P2" s="61"/>
+      <c r="Q2" s="61"/>
+      <c r="R2" s="61"/>
+      <c r="S2" s="61"/>
+      <c r="T2" s="61"/>
+      <c r="U2" s="61"/>
+      <c r="V2" s="61"/>
+      <c r="W2" s="61"/>
+      <c r="X2" s="61"/>
+      <c r="Y2" s="61"/>
+      <c r="Z2" s="61"/>
+      <c r="AA2" s="61"/>
+      <c r="AB2" s="61"/>
+      <c r="AC2" s="61"/>
+      <c r="AD2" s="61"/>
+      <c r="AE2" s="61"/>
+      <c r="AF2" s="61"/>
+      <c r="AG2" s="61"/>
+      <c r="AH2" s="61"/>
+      <c r="AI2" s="61"/>
+      <c r="AJ2" s="61"/>
+      <c r="AK2" s="61"/>
+      <c r="AL2" s="61"/>
+      <c r="AM2" s="61"/>
+      <c r="AN2" s="61"/>
+      <c r="AO2" s="61"/>
+      <c r="AP2" s="61"/>
+      <c r="AQ2" s="61"/>
+      <c r="AR2" s="61"/>
+      <c r="AS2" s="61"/>
+      <c r="AT2" s="61"/>
+      <c r="AU2" s="61"/>
+      <c r="AV2" s="61"/>
+      <c r="AW2" s="61"/>
+      <c r="AX2" s="61"/>
+      <c r="AY2" s="61"/>
+      <c r="AZ2" s="61"/>
+      <c r="BA2" s="61"/>
+      <c r="BB2" s="61"/>
+      <c r="BC2" s="61"/>
+      <c r="BD2" s="61"/>
+      <c r="BE2" s="61"/>
+      <c r="BF2" s="61"/>
+      <c r="BG2" s="61"/>
+      <c r="BH2" s="61"/>
+      <c r="BI2" s="61"/>
+      <c r="BJ2" s="61"/>
+      <c r="BK2" s="61"/>
+      <c r="BL2" s="61"/>
+      <c r="BM2" s="61"/>
+      <c r="BN2" s="61"/>
+      <c r="BO2" s="61"/>
+      <c r="BP2" s="61"/>
+      <c r="BQ2" s="61"/>
+      <c r="BR2" s="61"/>
+      <c r="BS2" s="61"/>
+      <c r="BT2" s="61"/>
+      <c r="BU2" s="61"/>
+      <c r="BV2" s="61"/>
+      <c r="BW2" s="61"/>
+      <c r="BX2" s="61"/>
+      <c r="BY2" s="61"/>
+      <c r="BZ2" s="61"/>
+      <c r="CA2" s="61"/>
+      <c r="CB2" s="61"/>
+      <c r="CC2" s="61"/>
+      <c r="CD2" s="61"/>
+      <c r="CE2" s="61"/>
+      <c r="CF2" s="61"/>
+      <c r="CG2" s="61"/>
+      <c r="CH2" s="61"/>
+      <c r="CI2" s="61"/>
+      <c r="CJ2" s="61"/>
+      <c r="CK2" s="61"/>
+      <c r="CL2" s="61"/>
+      <c r="CM2" s="61"/>
+      <c r="CN2" s="61"/>
+      <c r="CO2" s="61"/>
+      <c r="CP2" s="61"/>
+      <c r="CQ2" s="61"/>
+      <c r="CR2" s="61"/>
+      <c r="CS2" s="61"/>
+      <c r="CT2" s="61"/>
+      <c r="CU2" s="61"/>
+      <c r="CV2" s="61"/>
+      <c r="CW2" s="61"/>
+      <c r="CX2" s="61"/>
+      <c r="CY2" s="61"/>
+      <c r="CZ2" s="61"/>
+      <c r="DA2" s="61"/>
+      <c r="DB2" s="61"/>
+      <c r="DC2" s="61"/>
+      <c r="DD2" s="61"/>
+      <c r="DE2" s="61"/>
+      <c r="DF2" s="62"/>
     </row>
     <row r="3" spans="1:110" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="31"/>
-      <c r="B3" s="64"/>
-      <c r="C3" s="65"/>
-      <c r="D3" s="65"/>
-      <c r="E3" s="65"/>
-      <c r="F3" s="65"/>
-      <c r="G3" s="65"/>
-      <c r="H3" s="65"/>
-      <c r="I3" s="65"/>
-      <c r="J3" s="65"/>
-      <c r="K3" s="65"/>
-      <c r="L3" s="65"/>
-      <c r="M3" s="65"/>
-      <c r="N3" s="65"/>
-      <c r="O3" s="65"/>
-      <c r="P3" s="65"/>
-      <c r="Q3" s="65"/>
-      <c r="R3" s="65"/>
-      <c r="S3" s="65"/>
-      <c r="T3" s="65"/>
-      <c r="U3" s="65"/>
-      <c r="V3" s="65"/>
-      <c r="W3" s="65"/>
-      <c r="X3" s="65"/>
-      <c r="Y3" s="65"/>
-      <c r="Z3" s="65"/>
-      <c r="AA3" s="65"/>
-      <c r="AB3" s="65"/>
-      <c r="AC3" s="65"/>
-      <c r="AD3" s="65"/>
-      <c r="AE3" s="65"/>
-      <c r="AF3" s="65"/>
-      <c r="AG3" s="65"/>
-      <c r="AH3" s="65"/>
-      <c r="AI3" s="65"/>
-      <c r="AJ3" s="65"/>
-      <c r="AK3" s="65"/>
-      <c r="AL3" s="65"/>
-      <c r="AM3" s="65"/>
-      <c r="AN3" s="65"/>
-      <c r="AO3" s="65"/>
-      <c r="AP3" s="65"/>
-      <c r="AQ3" s="65"/>
-      <c r="AR3" s="65"/>
-      <c r="AS3" s="65"/>
-      <c r="AT3" s="65"/>
-      <c r="AU3" s="65"/>
-      <c r="AV3" s="65"/>
-      <c r="AW3" s="65"/>
-      <c r="AX3" s="65"/>
-      <c r="AY3" s="65"/>
-      <c r="AZ3" s="65"/>
-      <c r="BA3" s="65"/>
-      <c r="BB3" s="65"/>
-      <c r="BC3" s="65"/>
-      <c r="BD3" s="65"/>
-      <c r="BE3" s="65"/>
-      <c r="BF3" s="65"/>
-      <c r="BG3" s="65"/>
-      <c r="BH3" s="65"/>
-      <c r="BI3" s="65"/>
-      <c r="BJ3" s="65"/>
-      <c r="BK3" s="65"/>
-      <c r="BL3" s="65"/>
-      <c r="BM3" s="65"/>
-      <c r="BN3" s="65"/>
-      <c r="BO3" s="65"/>
-      <c r="BP3" s="65"/>
-      <c r="BQ3" s="65"/>
-      <c r="BR3" s="65"/>
-      <c r="BS3" s="65"/>
-      <c r="BT3" s="65"/>
-      <c r="BU3" s="65"/>
-      <c r="BV3" s="65"/>
-      <c r="BW3" s="65"/>
-      <c r="BX3" s="65"/>
-      <c r="BY3" s="65"/>
-      <c r="BZ3" s="65"/>
-      <c r="CA3" s="65"/>
-      <c r="CB3" s="65"/>
-      <c r="CC3" s="65"/>
-      <c r="CD3" s="65"/>
-      <c r="CE3" s="65"/>
-      <c r="CF3" s="65"/>
-      <c r="CG3" s="65"/>
-      <c r="CH3" s="65"/>
-      <c r="CI3" s="65"/>
-      <c r="CJ3" s="65"/>
-      <c r="CK3" s="65"/>
-      <c r="CL3" s="65"/>
-      <c r="CM3" s="65"/>
-      <c r="CN3" s="65"/>
-      <c r="CO3" s="65"/>
-      <c r="CP3" s="65"/>
-      <c r="CQ3" s="65"/>
-      <c r="CR3" s="65"/>
-      <c r="CS3" s="65"/>
-      <c r="CT3" s="65"/>
-      <c r="CU3" s="65"/>
-      <c r="CV3" s="65"/>
-      <c r="CW3" s="65"/>
-      <c r="CX3" s="65"/>
-      <c r="CY3" s="65"/>
-      <c r="CZ3" s="65"/>
-      <c r="DA3" s="65"/>
-      <c r="DB3" s="65"/>
-      <c r="DC3" s="65"/>
-      <c r="DD3" s="65"/>
-      <c r="DE3" s="65"/>
-      <c r="DF3" s="66"/>
+      <c r="B3" s="63"/>
+      <c r="C3" s="64"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="64"/>
+      <c r="G3" s="64"/>
+      <c r="H3" s="64"/>
+      <c r="I3" s="64"/>
+      <c r="J3" s="64"/>
+      <c r="K3" s="64"/>
+      <c r="L3" s="64"/>
+      <c r="M3" s="64"/>
+      <c r="N3" s="64"/>
+      <c r="O3" s="64"/>
+      <c r="P3" s="64"/>
+      <c r="Q3" s="64"/>
+      <c r="R3" s="64"/>
+      <c r="S3" s="64"/>
+      <c r="T3" s="64"/>
+      <c r="U3" s="64"/>
+      <c r="V3" s="64"/>
+      <c r="W3" s="64"/>
+      <c r="X3" s="64"/>
+      <c r="Y3" s="64"/>
+      <c r="Z3" s="64"/>
+      <c r="AA3" s="64"/>
+      <c r="AB3" s="64"/>
+      <c r="AC3" s="64"/>
+      <c r="AD3" s="64"/>
+      <c r="AE3" s="64"/>
+      <c r="AF3" s="64"/>
+      <c r="AG3" s="64"/>
+      <c r="AH3" s="64"/>
+      <c r="AI3" s="64"/>
+      <c r="AJ3" s="64"/>
+      <c r="AK3" s="64"/>
+      <c r="AL3" s="64"/>
+      <c r="AM3" s="64"/>
+      <c r="AN3" s="64"/>
+      <c r="AO3" s="64"/>
+      <c r="AP3" s="64"/>
+      <c r="AQ3" s="64"/>
+      <c r="AR3" s="64"/>
+      <c r="AS3" s="64"/>
+      <c r="AT3" s="64"/>
+      <c r="AU3" s="64"/>
+      <c r="AV3" s="64"/>
+      <c r="AW3" s="64"/>
+      <c r="AX3" s="64"/>
+      <c r="AY3" s="64"/>
+      <c r="AZ3" s="64"/>
+      <c r="BA3" s="64"/>
+      <c r="BB3" s="64"/>
+      <c r="BC3" s="64"/>
+      <c r="BD3" s="64"/>
+      <c r="BE3" s="64"/>
+      <c r="BF3" s="64"/>
+      <c r="BG3" s="64"/>
+      <c r="BH3" s="64"/>
+      <c r="BI3" s="64"/>
+      <c r="BJ3" s="64"/>
+      <c r="BK3" s="64"/>
+      <c r="BL3" s="64"/>
+      <c r="BM3" s="64"/>
+      <c r="BN3" s="64"/>
+      <c r="BO3" s="64"/>
+      <c r="BP3" s="64"/>
+      <c r="BQ3" s="64"/>
+      <c r="BR3" s="64"/>
+      <c r="BS3" s="64"/>
+      <c r="BT3" s="64"/>
+      <c r="BU3" s="64"/>
+      <c r="BV3" s="64"/>
+      <c r="BW3" s="64"/>
+      <c r="BX3" s="64"/>
+      <c r="BY3" s="64"/>
+      <c r="BZ3" s="64"/>
+      <c r="CA3" s="64"/>
+      <c r="CB3" s="64"/>
+      <c r="CC3" s="64"/>
+      <c r="CD3" s="64"/>
+      <c r="CE3" s="64"/>
+      <c r="CF3" s="64"/>
+      <c r="CG3" s="64"/>
+      <c r="CH3" s="64"/>
+      <c r="CI3" s="64"/>
+      <c r="CJ3" s="64"/>
+      <c r="CK3" s="64"/>
+      <c r="CL3" s="64"/>
+      <c r="CM3" s="64"/>
+      <c r="CN3" s="64"/>
+      <c r="CO3" s="64"/>
+      <c r="CP3" s="64"/>
+      <c r="CQ3" s="64"/>
+      <c r="CR3" s="64"/>
+      <c r="CS3" s="64"/>
+      <c r="CT3" s="64"/>
+      <c r="CU3" s="64"/>
+      <c r="CV3" s="64"/>
+      <c r="CW3" s="64"/>
+      <c r="CX3" s="64"/>
+      <c r="CY3" s="64"/>
+      <c r="CZ3" s="64"/>
+      <c r="DA3" s="64"/>
+      <c r="DB3" s="64"/>
+      <c r="DC3" s="64"/>
+      <c r="DD3" s="64"/>
+      <c r="DE3" s="64"/>
+      <c r="DF3" s="65"/>
     </row>
     <row r="4" spans="1:110" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="31"/>
-      <c r="B4" s="67" t="s">
+      <c r="B4" s="66" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="68"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="69"/>
-      <c r="F4" s="67" t="s">
+      <c r="C4" s="67"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="66" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="68"/>
-      <c r="H4" s="69"/>
-      <c r="I4" s="67" t="s">
+      <c r="G4" s="67"/>
+      <c r="H4" s="68"/>
+      <c r="I4" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="J4" s="69"/>
-      <c r="K4" s="70" t="s">
+      <c r="J4" s="68"/>
+      <c r="K4" s="69" t="s">
         <v>16</v>
       </c>
-      <c r="L4" s="71"/>
-      <c r="M4" s="71"/>
-      <c r="N4" s="71"/>
-      <c r="O4" s="71"/>
-      <c r="P4" s="71"/>
-      <c r="Q4" s="71"/>
-      <c r="R4" s="71"/>
-      <c r="S4" s="71"/>
-      <c r="T4" s="71"/>
-      <c r="U4" s="71"/>
-      <c r="V4" s="71"/>
-      <c r="W4" s="71"/>
-      <c r="X4" s="71"/>
-      <c r="Y4" s="71"/>
-      <c r="Z4" s="71"/>
-      <c r="AA4" s="71"/>
-      <c r="AB4" s="71"/>
-      <c r="AC4" s="71"/>
-      <c r="AD4" s="71"/>
-      <c r="AE4" s="71"/>
-      <c r="AF4" s="71"/>
-      <c r="AG4" s="71"/>
-      <c r="AH4" s="71"/>
-      <c r="AI4" s="71"/>
-      <c r="AJ4" s="71"/>
-      <c r="AK4" s="71"/>
-      <c r="AL4" s="71"/>
-      <c r="AM4" s="71"/>
-      <c r="AN4" s="71"/>
-      <c r="AO4" s="71"/>
-      <c r="AP4" s="71"/>
-      <c r="AQ4" s="71"/>
-      <c r="AR4" s="71"/>
-      <c r="AS4" s="71"/>
-      <c r="AT4" s="71"/>
-      <c r="AU4" s="71"/>
-      <c r="AV4" s="71"/>
-      <c r="AW4" s="71"/>
-      <c r="AX4" s="71"/>
-      <c r="AY4" s="71"/>
-      <c r="AZ4" s="71"/>
-      <c r="BA4" s="71"/>
-      <c r="BB4" s="71"/>
-      <c r="BC4" s="71"/>
-      <c r="BD4" s="71"/>
-      <c r="BE4" s="71"/>
-      <c r="BF4" s="71"/>
-      <c r="BG4" s="71"/>
-      <c r="BH4" s="71"/>
-      <c r="BI4" s="71"/>
-      <c r="BJ4" s="71"/>
-      <c r="BK4" s="71"/>
-      <c r="BL4" s="71"/>
-      <c r="BM4" s="71"/>
-      <c r="BN4" s="71"/>
-      <c r="BO4" s="71"/>
-      <c r="BP4" s="71"/>
-      <c r="BQ4" s="71"/>
-      <c r="BR4" s="71"/>
-      <c r="BS4" s="71"/>
-      <c r="BT4" s="71"/>
-      <c r="BU4" s="71"/>
-      <c r="BV4" s="71"/>
-      <c r="BW4" s="71"/>
-      <c r="BX4" s="71"/>
-      <c r="BY4" s="71"/>
-      <c r="BZ4" s="71"/>
-      <c r="CA4" s="71"/>
-      <c r="CB4" s="71"/>
-      <c r="CC4" s="71"/>
-      <c r="CD4" s="71"/>
-      <c r="CE4" s="71"/>
-      <c r="CF4" s="71"/>
-      <c r="CG4" s="71"/>
-      <c r="CH4" s="71"/>
-      <c r="CI4" s="71"/>
-      <c r="CJ4" s="71"/>
-      <c r="CK4" s="71"/>
-      <c r="CL4" s="71"/>
-      <c r="CM4" s="71"/>
-      <c r="CN4" s="71"/>
-      <c r="CO4" s="71"/>
-      <c r="CP4" s="71"/>
-      <c r="CQ4" s="71"/>
-      <c r="CR4" s="71"/>
-      <c r="CS4" s="71"/>
-      <c r="CT4" s="71"/>
-      <c r="CU4" s="71"/>
-      <c r="CV4" s="71"/>
-      <c r="CW4" s="71"/>
-      <c r="CX4" s="71"/>
-      <c r="CY4" s="71"/>
-      <c r="CZ4" s="71"/>
-      <c r="DA4" s="71"/>
-      <c r="DB4" s="71"/>
-      <c r="DC4" s="71"/>
-      <c r="DD4" s="71"/>
-      <c r="DE4" s="71"/>
-      <c r="DF4" s="72"/>
+      <c r="L4" s="70"/>
+      <c r="M4" s="70"/>
+      <c r="N4" s="70"/>
+      <c r="O4" s="70"/>
+      <c r="P4" s="70"/>
+      <c r="Q4" s="70"/>
+      <c r="R4" s="70"/>
+      <c r="S4" s="70"/>
+      <c r="T4" s="70"/>
+      <c r="U4" s="70"/>
+      <c r="V4" s="70"/>
+      <c r="W4" s="70"/>
+      <c r="X4" s="70"/>
+      <c r="Y4" s="70"/>
+      <c r="Z4" s="70"/>
+      <c r="AA4" s="70"/>
+      <c r="AB4" s="70"/>
+      <c r="AC4" s="70"/>
+      <c r="AD4" s="70"/>
+      <c r="AE4" s="70"/>
+      <c r="AF4" s="70"/>
+      <c r="AG4" s="70"/>
+      <c r="AH4" s="70"/>
+      <c r="AI4" s="70"/>
+      <c r="AJ4" s="70"/>
+      <c r="AK4" s="70"/>
+      <c r="AL4" s="70"/>
+      <c r="AM4" s="70"/>
+      <c r="AN4" s="70"/>
+      <c r="AO4" s="70"/>
+      <c r="AP4" s="70"/>
+      <c r="AQ4" s="70"/>
+      <c r="AR4" s="70"/>
+      <c r="AS4" s="70"/>
+      <c r="AT4" s="70"/>
+      <c r="AU4" s="70"/>
+      <c r="AV4" s="70"/>
+      <c r="AW4" s="70"/>
+      <c r="AX4" s="70"/>
+      <c r="AY4" s="70"/>
+      <c r="AZ4" s="70"/>
+      <c r="BA4" s="70"/>
+      <c r="BB4" s="70"/>
+      <c r="BC4" s="70"/>
+      <c r="BD4" s="70"/>
+      <c r="BE4" s="70"/>
+      <c r="BF4" s="70"/>
+      <c r="BG4" s="70"/>
+      <c r="BH4" s="70"/>
+      <c r="BI4" s="70"/>
+      <c r="BJ4" s="70"/>
+      <c r="BK4" s="70"/>
+      <c r="BL4" s="70"/>
+      <c r="BM4" s="70"/>
+      <c r="BN4" s="70"/>
+      <c r="BO4" s="70"/>
+      <c r="BP4" s="70"/>
+      <c r="BQ4" s="70"/>
+      <c r="BR4" s="70"/>
+      <c r="BS4" s="70"/>
+      <c r="BT4" s="70"/>
+      <c r="BU4" s="70"/>
+      <c r="BV4" s="70"/>
+      <c r="BW4" s="70"/>
+      <c r="BX4" s="70"/>
+      <c r="BY4" s="70"/>
+      <c r="BZ4" s="70"/>
+      <c r="CA4" s="70"/>
+      <c r="CB4" s="70"/>
+      <c r="CC4" s="70"/>
+      <c r="CD4" s="70"/>
+      <c r="CE4" s="70"/>
+      <c r="CF4" s="70"/>
+      <c r="CG4" s="70"/>
+      <c r="CH4" s="70"/>
+      <c r="CI4" s="70"/>
+      <c r="CJ4" s="70"/>
+      <c r="CK4" s="70"/>
+      <c r="CL4" s="70"/>
+      <c r="CM4" s="70"/>
+      <c r="CN4" s="70"/>
+      <c r="CO4" s="70"/>
+      <c r="CP4" s="70"/>
+      <c r="CQ4" s="70"/>
+      <c r="CR4" s="70"/>
+      <c r="CS4" s="70"/>
+      <c r="CT4" s="70"/>
+      <c r="CU4" s="70"/>
+      <c r="CV4" s="70"/>
+      <c r="CW4" s="70"/>
+      <c r="CX4" s="70"/>
+      <c r="CY4" s="70"/>
+      <c r="CZ4" s="70"/>
+      <c r="DA4" s="70"/>
+      <c r="DB4" s="70"/>
+      <c r="DC4" s="70"/>
+      <c r="DD4" s="70"/>
+      <c r="DE4" s="70"/>
+      <c r="DF4" s="71"/>
     </row>
     <row r="5" spans="1:110" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="36" t="s">
+      <c r="B5" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="37" t="s">
+      <c r="C5" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="37" t="s">
+      <c r="D5" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="38" t="s">
+      <c r="E5" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="56" t="s">
+      <c r="F5" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="39" t="s">
+      <c r="G5" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="H5" s="38" t="s">
+      <c r="H5" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="I5" s="40" t="s">
+      <c r="I5" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="J5" s="41" t="s">
+      <c r="J5" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="K5" s="42"/>
-      <c r="L5" s="43"/>
-      <c r="M5" s="43"/>
-      <c r="N5" s="43"/>
-      <c r="O5" s="43"/>
-      <c r="P5" s="43"/>
-      <c r="Q5" s="43"/>
-      <c r="R5" s="43"/>
-      <c r="S5" s="43"/>
-      <c r="T5" s="43"/>
-      <c r="U5" s="43"/>
-      <c r="V5" s="43"/>
-      <c r="W5" s="43"/>
-      <c r="X5" s="43"/>
-      <c r="Y5" s="43"/>
-      <c r="Z5" s="43"/>
-      <c r="AA5" s="43"/>
-      <c r="AB5" s="43"/>
-      <c r="AC5" s="43"/>
-      <c r="AD5" s="43"/>
-      <c r="AE5" s="43"/>
-      <c r="AF5" s="43"/>
-      <c r="AG5" s="43"/>
-      <c r="AH5" s="43"/>
-      <c r="AI5" s="43"/>
-      <c r="AJ5" s="43"/>
-      <c r="AK5" s="43"/>
-      <c r="AL5" s="43"/>
-      <c r="AM5" s="43"/>
-      <c r="AN5" s="43"/>
-      <c r="AO5" s="43"/>
-      <c r="AP5" s="43"/>
-      <c r="AQ5" s="43"/>
-      <c r="AR5" s="43"/>
-      <c r="AS5" s="43"/>
-      <c r="AT5" s="43"/>
-      <c r="AU5" s="43"/>
-      <c r="AV5" s="43"/>
-      <c r="AW5" s="43"/>
-      <c r="AX5" s="43"/>
-      <c r="AY5" s="43"/>
-      <c r="AZ5" s="43"/>
-      <c r="BA5" s="43"/>
-      <c r="BB5" s="43"/>
-      <c r="BC5" s="43"/>
-      <c r="BD5" s="43"/>
-      <c r="BE5" s="43"/>
-      <c r="BF5" s="43"/>
-      <c r="BG5" s="43"/>
-      <c r="BH5" s="43"/>
-      <c r="BI5" s="43"/>
-      <c r="BJ5" s="43"/>
-      <c r="BK5" s="43"/>
-      <c r="BL5" s="43"/>
-      <c r="BM5" s="43"/>
-      <c r="BN5" s="43"/>
-      <c r="BO5" s="43"/>
-      <c r="BP5" s="43"/>
-      <c r="BQ5" s="43"/>
-      <c r="BR5" s="43"/>
-      <c r="BS5" s="43"/>
-      <c r="BT5" s="43"/>
-      <c r="BU5" s="43"/>
-      <c r="BV5" s="43"/>
-      <c r="BW5" s="43"/>
-      <c r="BX5" s="43"/>
-      <c r="BY5" s="43"/>
-      <c r="BZ5" s="43"/>
-      <c r="CA5" s="43"/>
-      <c r="CB5" s="43"/>
-      <c r="CC5" s="43"/>
-      <c r="CD5" s="43"/>
-      <c r="CE5" s="43"/>
-      <c r="CF5" s="43"/>
-      <c r="CG5" s="43"/>
-      <c r="CH5" s="43"/>
-      <c r="CI5" s="43"/>
-      <c r="CJ5" s="43"/>
-      <c r="CK5" s="43"/>
-      <c r="CL5" s="43"/>
-      <c r="CM5" s="43"/>
-      <c r="CN5" s="43"/>
-      <c r="CO5" s="43"/>
-      <c r="CP5" s="43"/>
-      <c r="CQ5" s="43"/>
-      <c r="CR5" s="43"/>
-      <c r="CS5" s="43"/>
-      <c r="CT5" s="43"/>
-      <c r="CU5" s="43"/>
-      <c r="CV5" s="43"/>
-      <c r="CW5" s="43"/>
-      <c r="CX5" s="43"/>
-      <c r="CY5" s="43"/>
-      <c r="CZ5" s="43"/>
-      <c r="DA5" s="43"/>
-      <c r="DB5" s="43"/>
-      <c r="DC5" s="43"/>
-      <c r="DD5" s="43"/>
-      <c r="DE5" s="43"/>
-      <c r="DF5" s="44"/>
+      <c r="K5" s="41"/>
+      <c r="L5" s="42"/>
+      <c r="M5" s="42"/>
+      <c r="N5" s="42"/>
+      <c r="O5" s="42"/>
+      <c r="P5" s="42"/>
+      <c r="Q5" s="42"/>
+      <c r="R5" s="42"/>
+      <c r="S5" s="42"/>
+      <c r="T5" s="42"/>
+      <c r="U5" s="42"/>
+      <c r="V5" s="42"/>
+      <c r="W5" s="42"/>
+      <c r="X5" s="42"/>
+      <c r="Y5" s="42"/>
+      <c r="Z5" s="42"/>
+      <c r="AA5" s="42"/>
+      <c r="AB5" s="42"/>
+      <c r="AC5" s="42"/>
+      <c r="AD5" s="42"/>
+      <c r="AE5" s="42"/>
+      <c r="AF5" s="42"/>
+      <c r="AG5" s="42"/>
+      <c r="AH5" s="42"/>
+      <c r="AI5" s="42"/>
+      <c r="AJ5" s="42"/>
+      <c r="AK5" s="42"/>
+      <c r="AL5" s="42"/>
+      <c r="AM5" s="42"/>
+      <c r="AN5" s="42"/>
+      <c r="AO5" s="42"/>
+      <c r="AP5" s="42"/>
+      <c r="AQ5" s="42"/>
+      <c r="AR5" s="42"/>
+      <c r="AS5" s="42"/>
+      <c r="AT5" s="42"/>
+      <c r="AU5" s="42"/>
+      <c r="AV5" s="42"/>
+      <c r="AW5" s="42"/>
+      <c r="AX5" s="42"/>
+      <c r="AY5" s="42"/>
+      <c r="AZ5" s="42"/>
+      <c r="BA5" s="42"/>
+      <c r="BB5" s="42"/>
+      <c r="BC5" s="42"/>
+      <c r="BD5" s="42"/>
+      <c r="BE5" s="42"/>
+      <c r="BF5" s="42"/>
+      <c r="BG5" s="42"/>
+      <c r="BH5" s="42"/>
+      <c r="BI5" s="42"/>
+      <c r="BJ5" s="42"/>
+      <c r="BK5" s="42"/>
+      <c r="BL5" s="42"/>
+      <c r="BM5" s="42"/>
+      <c r="BN5" s="42"/>
+      <c r="BO5" s="42"/>
+      <c r="BP5" s="42"/>
+      <c r="BQ5" s="42"/>
+      <c r="BR5" s="42"/>
+      <c r="BS5" s="42"/>
+      <c r="BT5" s="42"/>
+      <c r="BU5" s="42"/>
+      <c r="BV5" s="42"/>
+      <c r="BW5" s="42"/>
+      <c r="BX5" s="42"/>
+      <c r="BY5" s="42"/>
+      <c r="BZ5" s="42"/>
+      <c r="CA5" s="42"/>
+      <c r="CB5" s="42"/>
+      <c r="CC5" s="42"/>
+      <c r="CD5" s="42"/>
+      <c r="CE5" s="42"/>
+      <c r="CF5" s="42"/>
+      <c r="CG5" s="42"/>
+      <c r="CH5" s="42"/>
+      <c r="CI5" s="42"/>
+      <c r="CJ5" s="42"/>
+      <c r="CK5" s="42"/>
+      <c r="CL5" s="42"/>
+      <c r="CM5" s="42"/>
+      <c r="CN5" s="42"/>
+      <c r="CO5" s="42"/>
+      <c r="CP5" s="42"/>
+      <c r="CQ5" s="42"/>
+      <c r="CR5" s="42"/>
+      <c r="CS5" s="42"/>
+      <c r="CT5" s="42"/>
+      <c r="CU5" s="42"/>
+      <c r="CV5" s="42"/>
+      <c r="CW5" s="42"/>
+      <c r="CX5" s="42"/>
+      <c r="CY5" s="42"/>
+      <c r="CZ5" s="42"/>
+      <c r="DA5" s="42"/>
+      <c r="DB5" s="42"/>
+      <c r="DC5" s="42"/>
+      <c r="DD5" s="42"/>
+      <c r="DE5" s="42"/>
+      <c r="DF5" s="43"/>
     </row>
     <row r="6" spans="1:110" x14ac:dyDescent="0.25">
       <c r="B6" s="25"/>
@@ -1956,107 +1956,107 @@
       <c r="G6" s="26"/>
       <c r="H6" s="27"/>
       <c r="I6" s="25"/>
-      <c r="J6" s="54"/>
-      <c r="K6" s="48"/>
-      <c r="L6" s="49"/>
-      <c r="M6" s="49"/>
-      <c r="N6" s="49"/>
-      <c r="O6" s="49"/>
-      <c r="P6" s="49"/>
-      <c r="Q6" s="49"/>
-      <c r="R6" s="49"/>
-      <c r="S6" s="49"/>
-      <c r="T6" s="49"/>
-      <c r="U6" s="49"/>
-      <c r="V6" s="49"/>
-      <c r="W6" s="49"/>
-      <c r="X6" s="49"/>
-      <c r="Y6" s="49"/>
-      <c r="Z6" s="49"/>
-      <c r="AA6" s="49"/>
-      <c r="AB6" s="49"/>
-      <c r="AC6" s="49"/>
-      <c r="AD6" s="49"/>
-      <c r="AE6" s="49"/>
-      <c r="AF6" s="49"/>
-      <c r="AG6" s="49"/>
-      <c r="AH6" s="49"/>
-      <c r="AI6" s="49"/>
-      <c r="AJ6" s="49"/>
-      <c r="AK6" s="49"/>
-      <c r="AL6" s="49"/>
-      <c r="AM6" s="49"/>
-      <c r="AN6" s="49"/>
-      <c r="AO6" s="49"/>
-      <c r="AP6" s="49"/>
-      <c r="AQ6" s="49"/>
-      <c r="AR6" s="49"/>
-      <c r="AS6" s="49"/>
-      <c r="AT6" s="49"/>
-      <c r="AU6" s="49"/>
-      <c r="AV6" s="49"/>
-      <c r="AW6" s="49"/>
-      <c r="AX6" s="49"/>
-      <c r="AY6" s="49"/>
-      <c r="AZ6" s="49"/>
-      <c r="BA6" s="49"/>
-      <c r="BB6" s="49"/>
-      <c r="BC6" s="49"/>
-      <c r="BD6" s="49"/>
-      <c r="BE6" s="49"/>
-      <c r="BF6" s="49"/>
-      <c r="BG6" s="49"/>
-      <c r="BH6" s="49"/>
-      <c r="BI6" s="49"/>
-      <c r="BJ6" s="49"/>
-      <c r="BK6" s="49"/>
-      <c r="BL6" s="49"/>
-      <c r="BM6" s="49"/>
-      <c r="BN6" s="49"/>
-      <c r="BO6" s="49"/>
-      <c r="BP6" s="49"/>
-      <c r="BQ6" s="49"/>
-      <c r="BR6" s="49"/>
-      <c r="BS6" s="49"/>
-      <c r="BT6" s="49"/>
-      <c r="BU6" s="49"/>
-      <c r="BV6" s="49"/>
-      <c r="BW6" s="49"/>
-      <c r="BX6" s="49"/>
-      <c r="BY6" s="49"/>
-      <c r="BZ6" s="49"/>
-      <c r="CA6" s="49"/>
-      <c r="CB6" s="49"/>
-      <c r="CC6" s="49"/>
-      <c r="CD6" s="49"/>
-      <c r="CE6" s="49"/>
-      <c r="CF6" s="49"/>
-      <c r="CG6" s="49"/>
-      <c r="CH6" s="49"/>
-      <c r="CI6" s="49"/>
-      <c r="CJ6" s="49"/>
-      <c r="CK6" s="49"/>
-      <c r="CL6" s="49"/>
-      <c r="CM6" s="49"/>
-      <c r="CN6" s="49"/>
-      <c r="CO6" s="49"/>
-      <c r="CP6" s="49"/>
-      <c r="CQ6" s="49"/>
-      <c r="CR6" s="49"/>
-      <c r="CS6" s="49"/>
-      <c r="CT6" s="49"/>
-      <c r="CU6" s="49"/>
-      <c r="CV6" s="49"/>
-      <c r="CW6" s="49"/>
-      <c r="CX6" s="49"/>
-      <c r="CY6" s="49"/>
-      <c r="CZ6" s="49"/>
-      <c r="DA6" s="49"/>
-      <c r="DB6" s="49"/>
-      <c r="DC6" s="49"/>
-      <c r="DD6" s="49"/>
-      <c r="DE6" s="49"/>
-      <c r="DF6" s="50"/>
+      <c r="J6" s="53"/>
+      <c r="K6" s="47"/>
+      <c r="L6" s="48"/>
+      <c r="M6" s="48"/>
+      <c r="N6" s="48"/>
+      <c r="O6" s="48"/>
+      <c r="P6" s="48"/>
+      <c r="Q6" s="48"/>
+      <c r="R6" s="48"/>
+      <c r="S6" s="48"/>
+      <c r="T6" s="48"/>
+      <c r="U6" s="48"/>
+      <c r="V6" s="48"/>
+      <c r="W6" s="48"/>
+      <c r="X6" s="48"/>
+      <c r="Y6" s="48"/>
+      <c r="Z6" s="48"/>
+      <c r="AA6" s="48"/>
+      <c r="AB6" s="48"/>
+      <c r="AC6" s="48"/>
+      <c r="AD6" s="48"/>
+      <c r="AE6" s="48"/>
+      <c r="AF6" s="48"/>
+      <c r="AG6" s="48"/>
+      <c r="AH6" s="48"/>
+      <c r="AI6" s="48"/>
+      <c r="AJ6" s="48"/>
+      <c r="AK6" s="48"/>
+      <c r="AL6" s="48"/>
+      <c r="AM6" s="48"/>
+      <c r="AN6" s="48"/>
+      <c r="AO6" s="48"/>
+      <c r="AP6" s="48"/>
+      <c r="AQ6" s="48"/>
+      <c r="AR6" s="48"/>
+      <c r="AS6" s="48"/>
+      <c r="AT6" s="48"/>
+      <c r="AU6" s="48"/>
+      <c r="AV6" s="48"/>
+      <c r="AW6" s="48"/>
+      <c r="AX6" s="48"/>
+      <c r="AY6" s="48"/>
+      <c r="AZ6" s="48"/>
+      <c r="BA6" s="48"/>
+      <c r="BB6" s="48"/>
+      <c r="BC6" s="48"/>
+      <c r="BD6" s="48"/>
+      <c r="BE6" s="48"/>
+      <c r="BF6" s="48"/>
+      <c r="BG6" s="48"/>
+      <c r="BH6" s="48"/>
+      <c r="BI6" s="48"/>
+      <c r="BJ6" s="48"/>
+      <c r="BK6" s="48"/>
+      <c r="BL6" s="48"/>
+      <c r="BM6" s="48"/>
+      <c r="BN6" s="48"/>
+      <c r="BO6" s="48"/>
+      <c r="BP6" s="48"/>
+      <c r="BQ6" s="48"/>
+      <c r="BR6" s="48"/>
+      <c r="BS6" s="48"/>
+      <c r="BT6" s="48"/>
+      <c r="BU6" s="48"/>
+      <c r="BV6" s="48"/>
+      <c r="BW6" s="48"/>
+      <c r="BX6" s="48"/>
+      <c r="BY6" s="48"/>
+      <c r="BZ6" s="48"/>
+      <c r="CA6" s="48"/>
+      <c r="CB6" s="48"/>
+      <c r="CC6" s="48"/>
+      <c r="CD6" s="48"/>
+      <c r="CE6" s="48"/>
+      <c r="CF6" s="48"/>
+      <c r="CG6" s="48"/>
+      <c r="CH6" s="48"/>
+      <c r="CI6" s="48"/>
+      <c r="CJ6" s="48"/>
+      <c r="CK6" s="48"/>
+      <c r="CL6" s="48"/>
+      <c r="CM6" s="48"/>
+      <c r="CN6" s="48"/>
+      <c r="CO6" s="48"/>
+      <c r="CP6" s="48"/>
+      <c r="CQ6" s="48"/>
+      <c r="CR6" s="48"/>
+      <c r="CS6" s="48"/>
+      <c r="CT6" s="48"/>
+      <c r="CU6" s="48"/>
+      <c r="CV6" s="48"/>
+      <c r="CW6" s="48"/>
+      <c r="CX6" s="48"/>
+      <c r="CY6" s="48"/>
+      <c r="CZ6" s="48"/>
+      <c r="DA6" s="48"/>
+      <c r="DB6" s="48"/>
+      <c r="DC6" s="48"/>
+      <c r="DD6" s="48"/>
+      <c r="DE6" s="48"/>
+      <c r="DF6" s="49"/>
     </row>
     <row r="7" spans="1:110" x14ac:dyDescent="0.25">
       <c r="B7" s="28"/>
@@ -2067,7 +2067,7 @@
       <c r="G7" s="29"/>
       <c r="H7" s="30"/>
       <c r="I7" s="28"/>
-      <c r="J7" s="55"/>
+      <c r="J7" s="54"/>
     </row>
     <row r="8" spans="1:110" x14ac:dyDescent="0.25">
       <c r="B8" s="28"/>
@@ -2078,7 +2078,7 @@
       <c r="G8" s="29"/>
       <c r="H8" s="30"/>
       <c r="I8" s="28"/>
-      <c r="J8" s="55"/>
+      <c r="J8" s="54"/>
     </row>
     <row r="9" spans="1:110" x14ac:dyDescent="0.25">
       <c r="B9" s="28"/>
@@ -2089,7 +2089,7 @@
       <c r="G9" s="29"/>
       <c r="H9" s="30"/>
       <c r="I9" s="28"/>
-      <c r="J9" s="55"/>
+      <c r="J9" s="54"/>
     </row>
     <row r="10" spans="1:110" x14ac:dyDescent="0.25">
       <c r="B10" s="28"/>
@@ -2100,7 +2100,7 @@
       <c r="G10" s="29"/>
       <c r="H10" s="30"/>
       <c r="I10" s="28"/>
-      <c r="J10" s="55"/>
+      <c r="J10" s="54"/>
     </row>
     <row r="11" spans="1:110" x14ac:dyDescent="0.25">
       <c r="B11" s="28"/>
@@ -2111,7 +2111,7 @@
       <c r="G11" s="29"/>
       <c r="H11" s="30"/>
       <c r="I11" s="28"/>
-      <c r="J11" s="55"/>
+      <c r="J11" s="54"/>
     </row>
     <row r="12" spans="1:110" x14ac:dyDescent="0.25">
       <c r="B12" s="28"/>
@@ -2122,7 +2122,7 @@
       <c r="G12" s="29"/>
       <c r="H12" s="30"/>
       <c r="I12" s="28"/>
-      <c r="J12" s="55"/>
+      <c r="J12" s="54"/>
     </row>
     <row r="13" spans="1:110" x14ac:dyDescent="0.25">
       <c r="B13" s="28"/>
@@ -2133,7 +2133,7 @@
       <c r="G13" s="29"/>
       <c r="H13" s="30"/>
       <c r="I13" s="28"/>
-      <c r="J13" s="55"/>
+      <c r="J13" s="54"/>
     </row>
     <row r="14" spans="1:110" x14ac:dyDescent="0.25">
       <c r="B14" s="28"/>
@@ -2144,7 +2144,7 @@
       <c r="G14" s="29"/>
       <c r="H14" s="30"/>
       <c r="I14" s="28"/>
-      <c r="J14" s="55"/>
+      <c r="J14" s="54"/>
     </row>
     <row r="15" spans="1:110" x14ac:dyDescent="0.25">
       <c r="B15" s="28"/>
@@ -2155,7 +2155,7 @@
       <c r="G15" s="29"/>
       <c r="H15" s="30"/>
       <c r="I15" s="28"/>
-      <c r="J15" s="55"/>
+      <c r="J15" s="54"/>
     </row>
     <row r="16" spans="1:110" x14ac:dyDescent="0.25">
       <c r="B16" s="28"/>
@@ -2166,7 +2166,7 @@
       <c r="G16" s="29"/>
       <c r="H16" s="30"/>
       <c r="I16" s="28"/>
-      <c r="J16" s="55"/>
+      <c r="J16" s="54"/>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B17" s="28"/>
@@ -2177,7 +2177,7 @@
       <c r="G17" s="29"/>
       <c r="H17" s="30"/>
       <c r="I17" s="28"/>
-      <c r="J17" s="55"/>
+      <c r="J17" s="54"/>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B18" s="28"/>
@@ -2188,7 +2188,7 @@
       <c r="G18" s="29"/>
       <c r="H18" s="30"/>
       <c r="I18" s="28"/>
-      <c r="J18" s="55"/>
+      <c r="J18" s="54"/>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B19" s="28"/>
@@ -2199,7 +2199,7 @@
       <c r="G19" s="29"/>
       <c r="H19" s="30"/>
       <c r="I19" s="28"/>
-      <c r="J19" s="55"/>
+      <c r="J19" s="54"/>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B20" s="28"/>
@@ -2210,7 +2210,7 @@
       <c r="G20" s="29"/>
       <c r="H20" s="30"/>
       <c r="I20" s="28"/>
-      <c r="J20" s="55"/>
+      <c r="J20" s="54"/>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B21" s="28"/>
@@ -2221,7 +2221,7 @@
       <c r="G21" s="29"/>
       <c r="H21" s="30"/>
       <c r="I21" s="28"/>
-      <c r="J21" s="55"/>
+      <c r="J21" s="54"/>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B22" s="28"/>
@@ -2232,7 +2232,7 @@
       <c r="G22" s="29"/>
       <c r="H22" s="30"/>
       <c r="I22" s="28"/>
-      <c r="J22" s="55"/>
+      <c r="J22" s="54"/>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B23" s="28"/>
@@ -2243,7 +2243,7 @@
       <c r="G23" s="29"/>
       <c r="H23" s="30"/>
       <c r="I23" s="28"/>
-      <c r="J23" s="55"/>
+      <c r="J23" s="54"/>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B24" s="28"/>
@@ -2254,7 +2254,7 @@
       <c r="G24" s="29"/>
       <c r="H24" s="30"/>
       <c r="I24" s="28"/>
-      <c r="J24" s="55"/>
+      <c r="J24" s="54"/>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B25" s="28"/>
@@ -2265,7 +2265,7 @@
       <c r="G25" s="29"/>
       <c r="H25" s="30"/>
       <c r="I25" s="28"/>
-      <c r="J25" s="55"/>
+      <c r="J25" s="54"/>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B26" s="28"/>
@@ -2276,7 +2276,7 @@
       <c r="G26" s="29"/>
       <c r="H26" s="30"/>
       <c r="I26" s="28"/>
-      <c r="J26" s="55"/>
+      <c r="J26" s="54"/>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B27" s="28"/>
@@ -2287,7 +2287,7 @@
       <c r="G27" s="29"/>
       <c r="H27" s="30"/>
       <c r="I27" s="28"/>
-      <c r="J27" s="55"/>
+      <c r="J27" s="54"/>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B28" s="28"/>
@@ -2298,7 +2298,7 @@
       <c r="G28" s="29"/>
       <c r="H28" s="30"/>
       <c r="I28" s="28"/>
-      <c r="J28" s="55"/>
+      <c r="J28" s="54"/>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B29" s="28"/>
@@ -2309,7 +2309,7 @@
       <c r="G29" s="29"/>
       <c r="H29" s="30"/>
       <c r="I29" s="28"/>
-      <c r="J29" s="55"/>
+      <c r="J29" s="54"/>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B30" s="28"/>
@@ -2320,7 +2320,7 @@
       <c r="G30" s="29"/>
       <c r="H30" s="30"/>
       <c r="I30" s="28"/>
-      <c r="J30" s="55"/>
+      <c r="J30" s="54"/>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B31" s="28"/>
@@ -2331,7 +2331,7 @@
       <c r="G31" s="29"/>
       <c r="H31" s="30"/>
       <c r="I31" s="28"/>
-      <c r="J31" s="55"/>
+      <c r="J31" s="54"/>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B32" s="28"/>
@@ -2342,7 +2342,7 @@
       <c r="G32" s="29"/>
       <c r="H32" s="30"/>
       <c r="I32" s="28"/>
-      <c r="J32" s="55"/>
+      <c r="J32" s="54"/>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B33" s="28"/>
@@ -2353,7 +2353,7 @@
       <c r="G33" s="29"/>
       <c r="H33" s="30"/>
       <c r="I33" s="28"/>
-      <c r="J33" s="55"/>
+      <c r="J33" s="54"/>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B34" s="28"/>
@@ -2364,7 +2364,7 @@
       <c r="G34" s="29"/>
       <c r="H34" s="30"/>
       <c r="I34" s="28"/>
-      <c r="J34" s="55"/>
+      <c r="J34" s="54"/>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B35" s="28"/>
@@ -2375,7 +2375,7 @@
       <c r="G35" s="29"/>
       <c r="H35" s="30"/>
       <c r="I35" s="28"/>
-      <c r="J35" s="55"/>
+      <c r="J35" s="54"/>
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B36" s="28"/>
@@ -2386,7 +2386,7 @@
       <c r="G36" s="29"/>
       <c r="H36" s="30"/>
       <c r="I36" s="28"/>
-      <c r="J36" s="55"/>
+      <c r="J36" s="54"/>
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B37" s="28"/>
@@ -2397,7 +2397,7 @@
       <c r="G37" s="29"/>
       <c r="H37" s="30"/>
       <c r="I37" s="28"/>
-      <c r="J37" s="55"/>
+      <c r="J37" s="54"/>
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B38" s="28"/>
@@ -2408,7 +2408,7 @@
       <c r="G38" s="29"/>
       <c r="H38" s="30"/>
       <c r="I38" s="28"/>
-      <c r="J38" s="55"/>
+      <c r="J38" s="54"/>
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B39" s="28"/>
@@ -2419,7 +2419,7 @@
       <c r="G39" s="29"/>
       <c r="H39" s="30"/>
       <c r="I39" s="28"/>
-      <c r="J39" s="55"/>
+      <c r="J39" s="54"/>
     </row>
     <row r="40" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B40" s="28"/>
@@ -2430,7 +2430,7 @@
       <c r="G40" s="29"/>
       <c r="H40" s="30"/>
       <c r="I40" s="28"/>
-      <c r="J40" s="55"/>
+      <c r="J40" s="54"/>
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B41" s="28"/>
@@ -2441,7 +2441,7 @@
       <c r="G41" s="29"/>
       <c r="H41" s="30"/>
       <c r="I41" s="28"/>
-      <c r="J41" s="55"/>
+      <c r="J41" s="54"/>
     </row>
     <row r="42" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B42" s="28"/>
@@ -2452,7 +2452,7 @@
       <c r="G42" s="29"/>
       <c r="H42" s="30"/>
       <c r="I42" s="28"/>
-      <c r="J42" s="55"/>
+      <c r="J42" s="54"/>
     </row>
     <row r="43" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B43" s="28"/>
@@ -2463,7 +2463,7 @@
       <c r="G43" s="29"/>
       <c r="H43" s="30"/>
       <c r="I43" s="28"/>
-      <c r="J43" s="55"/>
+      <c r="J43" s="54"/>
     </row>
     <row r="44" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B44" s="28"/>
@@ -2474,7 +2474,7 @@
       <c r="G44" s="29"/>
       <c r="H44" s="30"/>
       <c r="I44" s="28"/>
-      <c r="J44" s="55"/>
+      <c r="J44" s="54"/>
     </row>
     <row r="45" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B45" s="28"/>
@@ -2485,7 +2485,7 @@
       <c r="G45" s="29"/>
       <c r="H45" s="30"/>
       <c r="I45" s="28"/>
-      <c r="J45" s="55"/>
+      <c r="J45" s="54"/>
     </row>
     <row r="46" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B46" s="28"/>
@@ -2496,7 +2496,7 @@
       <c r="G46" s="29"/>
       <c r="H46" s="30"/>
       <c r="I46" s="28"/>
-      <c r="J46" s="55"/>
+      <c r="J46" s="54"/>
     </row>
     <row r="47" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B47" s="28"/>
@@ -2507,7 +2507,7 @@
       <c r="G47" s="29"/>
       <c r="H47" s="30"/>
       <c r="I47" s="28"/>
-      <c r="J47" s="55"/>
+      <c r="J47" s="54"/>
     </row>
     <row r="48" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B48" s="28"/>
@@ -2518,7 +2518,7 @@
       <c r="G48" s="29"/>
       <c r="H48" s="30"/>
       <c r="I48" s="28"/>
-      <c r="J48" s="55"/>
+      <c r="J48" s="54"/>
     </row>
     <row r="49" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B49" s="28"/>
@@ -2529,7 +2529,7 @@
       <c r="G49" s="29"/>
       <c r="H49" s="30"/>
       <c r="I49" s="28"/>
-      <c r="J49" s="55"/>
+      <c r="J49" s="54"/>
     </row>
     <row r="50" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B50" s="28"/>
@@ -2540,7 +2540,7 @@
       <c r="G50" s="29"/>
       <c r="H50" s="30"/>
       <c r="I50" s="28"/>
-      <c r="J50" s="55"/>
+      <c r="J50" s="54"/>
     </row>
     <row r="51" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B51" s="28"/>
@@ -2551,7 +2551,7 @@
       <c r="G51" s="29"/>
       <c r="H51" s="30"/>
       <c r="I51" s="28"/>
-      <c r="J51" s="55"/>
+      <c r="J51" s="54"/>
     </row>
     <row r="52" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B52" s="28"/>
@@ -2562,7 +2562,7 @@
       <c r="G52" s="29"/>
       <c r="H52" s="30"/>
       <c r="I52" s="28"/>
-      <c r="J52" s="55"/>
+      <c r="J52" s="54"/>
     </row>
     <row r="53" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B53" s="28"/>
@@ -2573,7 +2573,7 @@
       <c r="G53" s="29"/>
       <c r="H53" s="30"/>
       <c r="I53" s="28"/>
-      <c r="J53" s="55"/>
+      <c r="J53" s="54"/>
     </row>
     <row r="54" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B54" s="28"/>
@@ -2584,7 +2584,7 @@
       <c r="G54" s="29"/>
       <c r="H54" s="30"/>
       <c r="I54" s="28"/>
-      <c r="J54" s="55"/>
+      <c r="J54" s="54"/>
     </row>
     <row r="55" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B55" s="28"/>
@@ -2595,7 +2595,7 @@
       <c r="G55" s="29"/>
       <c r="H55" s="30"/>
       <c r="I55" s="28"/>
-      <c r="J55" s="55"/>
+      <c r="J55" s="54"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1"/>

--- a/form_reporting_templates/Form-1RC.xlsx
+++ b/form_reporting_templates/Form-1RC.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\echassot\Desktop\iotc-reference-forms\form_reporting_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E54DC65-FF5D-4B34-B507-B0AC53847B85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDA3FC3F-E361-4F64-AF20-BE08564462A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="5O4euoXp3wZfikUhVbwGMfw3acpHwF0QGHqLGhqkSE4QfnoccY7VPEsDDzzEBP5NB49UT+XbcZf1lZQTbDpLFA==" workbookSaltValue="DtEOIJKZ9UKP8oWrD+QpRw==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
@@ -39,9 +39,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="31">
   <si>
-    <t>Focal point</t>
-  </si>
-  <si>
     <t>Name</t>
   </si>
   <si>
@@ -130,6 +127,9 @@
   </si>
   <si>
     <t>Main elements</t>
+  </si>
+  <si>
+    <t>Liaison officer</t>
   </si>
 </sst>
 </file>
@@ -137,8 +137,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="165" formatCode="0.0"/>
-    <numFmt numFmtId="167" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
@@ -622,14 +622,14 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
@@ -756,6 +756,10 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
@@ -808,10 +812,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -1155,39 +1155,39 @@
   <sheetData>
     <row r="1" spans="2:8" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="60" t="s">
-        <v>26</v>
-      </c>
-      <c r="C2" s="61"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="61"/>
-      <c r="H2" s="62"/>
+      <c r="B2" s="61" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="63"/>
     </row>
     <row r="3" spans="2:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="63"/>
-      <c r="C3" s="64"/>
-      <c r="D3" s="64"/>
-      <c r="E3" s="64"/>
-      <c r="F3" s="64"/>
-      <c r="G3" s="64"/>
-      <c r="H3" s="65"/>
+      <c r="B3" s="64"/>
+      <c r="C3" s="65"/>
+      <c r="D3" s="65"/>
+      <c r="E3" s="65"/>
+      <c r="F3" s="65"/>
+      <c r="G3" s="65"/>
+      <c r="H3" s="66"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D4" s="19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G4" s="20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H4" s="4"/>
     </row>
@@ -1203,7 +1203,7 @@
     <row r="6" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B6" s="5"/>
       <c r="C6" s="8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
@@ -1222,26 +1222,26 @@
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" s="5"/>
-      <c r="C8" s="59" t="s">
-        <v>0</v>
-      </c>
-      <c r="D8" s="59"/>
+      <c r="C8" s="60" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="60"/>
       <c r="E8" s="6"/>
-      <c r="F8" s="59" t="s">
-        <v>22</v>
-      </c>
-      <c r="G8" s="59"/>
+      <c r="F8" s="60" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" s="60"/>
       <c r="H8" s="7"/>
     </row>
     <row r="9" spans="2:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="5"/>
       <c r="C9" s="17" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D9" s="23"/>
       <c r="E9" s="6"/>
       <c r="F9" s="17" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9" s="23"/>
       <c r="H9" s="7"/>
@@ -1249,12 +1249,12 @@
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10" s="5"/>
       <c r="C10" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D10" s="23"/>
       <c r="E10" s="6"/>
       <c r="F10" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G10" s="23"/>
       <c r="H10" s="7"/>
@@ -1271,9 +1271,9 @@
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B12" s="5"/>
       <c r="C12" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" s="72"/>
+        <v>22</v>
+      </c>
+      <c r="D12" s="56"/>
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
       <c r="G12" s="6"/>
@@ -1282,9 +1282,9 @@
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B13" s="5"/>
       <c r="C13" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13" s="72"/>
+        <v>7</v>
+      </c>
+      <c r="D13" s="56"/>
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
@@ -1311,7 +1311,7 @@
     <row r="16" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B16" s="5"/>
       <c r="C16" s="8" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
@@ -1331,7 +1331,7 @@
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" s="5"/>
       <c r="C18" s="9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D18" s="32"/>
       <c r="E18" s="6"/>
@@ -1342,7 +1342,7 @@
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" s="5"/>
       <c r="C19" s="33" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D19" s="32"/>
       <c r="E19" s="6"/>
@@ -1353,7 +1353,7 @@
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" s="5"/>
       <c r="C20" s="34" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D20" s="32"/>
       <c r="E20" s="6"/>
@@ -1382,7 +1382,7 @@
     <row r="23" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B23" s="5"/>
       <c r="C23" s="8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D23" s="10"/>
       <c r="E23" s="6"/>
@@ -1401,11 +1401,11 @@
     </row>
     <row r="25" spans="2:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="5"/>
-      <c r="C25" s="56"/>
-      <c r="D25" s="57"/>
-      <c r="E25" s="57"/>
-      <c r="F25" s="57"/>
-      <c r="G25" s="58"/>
+      <c r="C25" s="57"/>
+      <c r="D25" s="58"/>
+      <c r="E25" s="58"/>
+      <c r="F25" s="58"/>
+      <c r="G25" s="59"/>
       <c r="H25" s="7"/>
     </row>
     <row r="26" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1422,7 +1422,7 @@
       <c r="D27" s="22"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="Zg16P6A1JdVUTWLnYRHpU/lYy/sFns21eg3L4DKmOSgAUetVWOTVnFrz/KwjujR5fmCLTtK85fwrre2HK4vozw==" saltValue="ohHu4KFfVOIre0+Y7VTJfg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="e4jb2OkoYSh2aE7pe5vzfIukZ0Gsirj/CZARv+FE8zbU3JuyPOn5sxRwNZRQa91g0C7K+QILpJL9t3zntls0jg==" saltValue="QO6xURRvLXSBRM390wcdtA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="4">
     <mergeCell ref="C25:G25"/>
     <mergeCell ref="C8:D8"/>
@@ -1474,377 +1474,377 @@
   <sheetData>
     <row r="1" spans="1:110" customFormat="1" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:110" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="60" t="s">
-        <v>28</v>
-      </c>
-      <c r="C2" s="61"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="61"/>
-      <c r="H2" s="61"/>
-      <c r="I2" s="61"/>
-      <c r="J2" s="61"/>
-      <c r="K2" s="61"/>
-      <c r="L2" s="61"/>
-      <c r="M2" s="61"/>
-      <c r="N2" s="61"/>
-      <c r="O2" s="61"/>
-      <c r="P2" s="61"/>
-      <c r="Q2" s="61"/>
-      <c r="R2" s="61"/>
-      <c r="S2" s="61"/>
-      <c r="T2" s="61"/>
-      <c r="U2" s="61"/>
-      <c r="V2" s="61"/>
-      <c r="W2" s="61"/>
-      <c r="X2" s="61"/>
-      <c r="Y2" s="61"/>
-      <c r="Z2" s="61"/>
-      <c r="AA2" s="61"/>
-      <c r="AB2" s="61"/>
-      <c r="AC2" s="61"/>
-      <c r="AD2" s="61"/>
-      <c r="AE2" s="61"/>
-      <c r="AF2" s="61"/>
-      <c r="AG2" s="61"/>
-      <c r="AH2" s="61"/>
-      <c r="AI2" s="61"/>
-      <c r="AJ2" s="61"/>
-      <c r="AK2" s="61"/>
-      <c r="AL2" s="61"/>
-      <c r="AM2" s="61"/>
-      <c r="AN2" s="61"/>
-      <c r="AO2" s="61"/>
-      <c r="AP2" s="61"/>
-      <c r="AQ2" s="61"/>
-      <c r="AR2" s="61"/>
-      <c r="AS2" s="61"/>
-      <c r="AT2" s="61"/>
-      <c r="AU2" s="61"/>
-      <c r="AV2" s="61"/>
-      <c r="AW2" s="61"/>
-      <c r="AX2" s="61"/>
-      <c r="AY2" s="61"/>
-      <c r="AZ2" s="61"/>
-      <c r="BA2" s="61"/>
-      <c r="BB2" s="61"/>
-      <c r="BC2" s="61"/>
-      <c r="BD2" s="61"/>
-      <c r="BE2" s="61"/>
-      <c r="BF2" s="61"/>
-      <c r="BG2" s="61"/>
-      <c r="BH2" s="61"/>
-      <c r="BI2" s="61"/>
-      <c r="BJ2" s="61"/>
-      <c r="BK2" s="61"/>
-      <c r="BL2" s="61"/>
-      <c r="BM2" s="61"/>
-      <c r="BN2" s="61"/>
-      <c r="BO2" s="61"/>
-      <c r="BP2" s="61"/>
-      <c r="BQ2" s="61"/>
-      <c r="BR2" s="61"/>
-      <c r="BS2" s="61"/>
-      <c r="BT2" s="61"/>
-      <c r="BU2" s="61"/>
-      <c r="BV2" s="61"/>
-      <c r="BW2" s="61"/>
-      <c r="BX2" s="61"/>
-      <c r="BY2" s="61"/>
-      <c r="BZ2" s="61"/>
-      <c r="CA2" s="61"/>
-      <c r="CB2" s="61"/>
-      <c r="CC2" s="61"/>
-      <c r="CD2" s="61"/>
-      <c r="CE2" s="61"/>
-      <c r="CF2" s="61"/>
-      <c r="CG2" s="61"/>
-      <c r="CH2" s="61"/>
-      <c r="CI2" s="61"/>
-      <c r="CJ2" s="61"/>
-      <c r="CK2" s="61"/>
-      <c r="CL2" s="61"/>
-      <c r="CM2" s="61"/>
-      <c r="CN2" s="61"/>
-      <c r="CO2" s="61"/>
-      <c r="CP2" s="61"/>
-      <c r="CQ2" s="61"/>
-      <c r="CR2" s="61"/>
-      <c r="CS2" s="61"/>
-      <c r="CT2" s="61"/>
-      <c r="CU2" s="61"/>
-      <c r="CV2" s="61"/>
-      <c r="CW2" s="61"/>
-      <c r="CX2" s="61"/>
-      <c r="CY2" s="61"/>
-      <c r="CZ2" s="61"/>
-      <c r="DA2" s="61"/>
-      <c r="DB2" s="61"/>
-      <c r="DC2" s="61"/>
-      <c r="DD2" s="61"/>
-      <c r="DE2" s="61"/>
-      <c r="DF2" s="62"/>
+      <c r="B2" s="61" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="62"/>
+      <c r="I2" s="62"/>
+      <c r="J2" s="62"/>
+      <c r="K2" s="62"/>
+      <c r="L2" s="62"/>
+      <c r="M2" s="62"/>
+      <c r="N2" s="62"/>
+      <c r="O2" s="62"/>
+      <c r="P2" s="62"/>
+      <c r="Q2" s="62"/>
+      <c r="R2" s="62"/>
+      <c r="S2" s="62"/>
+      <c r="T2" s="62"/>
+      <c r="U2" s="62"/>
+      <c r="V2" s="62"/>
+      <c r="W2" s="62"/>
+      <c r="X2" s="62"/>
+      <c r="Y2" s="62"/>
+      <c r="Z2" s="62"/>
+      <c r="AA2" s="62"/>
+      <c r="AB2" s="62"/>
+      <c r="AC2" s="62"/>
+      <c r="AD2" s="62"/>
+      <c r="AE2" s="62"/>
+      <c r="AF2" s="62"/>
+      <c r="AG2" s="62"/>
+      <c r="AH2" s="62"/>
+      <c r="AI2" s="62"/>
+      <c r="AJ2" s="62"/>
+      <c r="AK2" s="62"/>
+      <c r="AL2" s="62"/>
+      <c r="AM2" s="62"/>
+      <c r="AN2" s="62"/>
+      <c r="AO2" s="62"/>
+      <c r="AP2" s="62"/>
+      <c r="AQ2" s="62"/>
+      <c r="AR2" s="62"/>
+      <c r="AS2" s="62"/>
+      <c r="AT2" s="62"/>
+      <c r="AU2" s="62"/>
+      <c r="AV2" s="62"/>
+      <c r="AW2" s="62"/>
+      <c r="AX2" s="62"/>
+      <c r="AY2" s="62"/>
+      <c r="AZ2" s="62"/>
+      <c r="BA2" s="62"/>
+      <c r="BB2" s="62"/>
+      <c r="BC2" s="62"/>
+      <c r="BD2" s="62"/>
+      <c r="BE2" s="62"/>
+      <c r="BF2" s="62"/>
+      <c r="BG2" s="62"/>
+      <c r="BH2" s="62"/>
+      <c r="BI2" s="62"/>
+      <c r="BJ2" s="62"/>
+      <c r="BK2" s="62"/>
+      <c r="BL2" s="62"/>
+      <c r="BM2" s="62"/>
+      <c r="BN2" s="62"/>
+      <c r="BO2" s="62"/>
+      <c r="BP2" s="62"/>
+      <c r="BQ2" s="62"/>
+      <c r="BR2" s="62"/>
+      <c r="BS2" s="62"/>
+      <c r="BT2" s="62"/>
+      <c r="BU2" s="62"/>
+      <c r="BV2" s="62"/>
+      <c r="BW2" s="62"/>
+      <c r="BX2" s="62"/>
+      <c r="BY2" s="62"/>
+      <c r="BZ2" s="62"/>
+      <c r="CA2" s="62"/>
+      <c r="CB2" s="62"/>
+      <c r="CC2" s="62"/>
+      <c r="CD2" s="62"/>
+      <c r="CE2" s="62"/>
+      <c r="CF2" s="62"/>
+      <c r="CG2" s="62"/>
+      <c r="CH2" s="62"/>
+      <c r="CI2" s="62"/>
+      <c r="CJ2" s="62"/>
+      <c r="CK2" s="62"/>
+      <c r="CL2" s="62"/>
+      <c r="CM2" s="62"/>
+      <c r="CN2" s="62"/>
+      <c r="CO2" s="62"/>
+      <c r="CP2" s="62"/>
+      <c r="CQ2" s="62"/>
+      <c r="CR2" s="62"/>
+      <c r="CS2" s="62"/>
+      <c r="CT2" s="62"/>
+      <c r="CU2" s="62"/>
+      <c r="CV2" s="62"/>
+      <c r="CW2" s="62"/>
+      <c r="CX2" s="62"/>
+      <c r="CY2" s="62"/>
+      <c r="CZ2" s="62"/>
+      <c r="DA2" s="62"/>
+      <c r="DB2" s="62"/>
+      <c r="DC2" s="62"/>
+      <c r="DD2" s="62"/>
+      <c r="DE2" s="62"/>
+      <c r="DF2" s="63"/>
     </row>
     <row r="3" spans="1:110" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="31"/>
-      <c r="B3" s="63"/>
-      <c r="C3" s="64"/>
-      <c r="D3" s="64"/>
-      <c r="E3" s="64"/>
-      <c r="F3" s="64"/>
-      <c r="G3" s="64"/>
-      <c r="H3" s="64"/>
-      <c r="I3" s="64"/>
-      <c r="J3" s="64"/>
-      <c r="K3" s="64"/>
-      <c r="L3" s="64"/>
-      <c r="M3" s="64"/>
-      <c r="N3" s="64"/>
-      <c r="O3" s="64"/>
-      <c r="P3" s="64"/>
-      <c r="Q3" s="64"/>
-      <c r="R3" s="64"/>
-      <c r="S3" s="64"/>
-      <c r="T3" s="64"/>
-      <c r="U3" s="64"/>
-      <c r="V3" s="64"/>
-      <c r="W3" s="64"/>
-      <c r="X3" s="64"/>
-      <c r="Y3" s="64"/>
-      <c r="Z3" s="64"/>
-      <c r="AA3" s="64"/>
-      <c r="AB3" s="64"/>
-      <c r="AC3" s="64"/>
-      <c r="AD3" s="64"/>
-      <c r="AE3" s="64"/>
-      <c r="AF3" s="64"/>
-      <c r="AG3" s="64"/>
-      <c r="AH3" s="64"/>
-      <c r="AI3" s="64"/>
-      <c r="AJ3" s="64"/>
-      <c r="AK3" s="64"/>
-      <c r="AL3" s="64"/>
-      <c r="AM3" s="64"/>
-      <c r="AN3" s="64"/>
-      <c r="AO3" s="64"/>
-      <c r="AP3" s="64"/>
-      <c r="AQ3" s="64"/>
-      <c r="AR3" s="64"/>
-      <c r="AS3" s="64"/>
-      <c r="AT3" s="64"/>
-      <c r="AU3" s="64"/>
-      <c r="AV3" s="64"/>
-      <c r="AW3" s="64"/>
-      <c r="AX3" s="64"/>
-      <c r="AY3" s="64"/>
-      <c r="AZ3" s="64"/>
-      <c r="BA3" s="64"/>
-      <c r="BB3" s="64"/>
-      <c r="BC3" s="64"/>
-      <c r="BD3" s="64"/>
-      <c r="BE3" s="64"/>
-      <c r="BF3" s="64"/>
-      <c r="BG3" s="64"/>
-      <c r="BH3" s="64"/>
-      <c r="BI3" s="64"/>
-      <c r="BJ3" s="64"/>
-      <c r="BK3" s="64"/>
-      <c r="BL3" s="64"/>
-      <c r="BM3" s="64"/>
-      <c r="BN3" s="64"/>
-      <c r="BO3" s="64"/>
-      <c r="BP3" s="64"/>
-      <c r="BQ3" s="64"/>
-      <c r="BR3" s="64"/>
-      <c r="BS3" s="64"/>
-      <c r="BT3" s="64"/>
-      <c r="BU3" s="64"/>
-      <c r="BV3" s="64"/>
-      <c r="BW3" s="64"/>
-      <c r="BX3" s="64"/>
-      <c r="BY3" s="64"/>
-      <c r="BZ3" s="64"/>
-      <c r="CA3" s="64"/>
-      <c r="CB3" s="64"/>
-      <c r="CC3" s="64"/>
-      <c r="CD3" s="64"/>
-      <c r="CE3" s="64"/>
-      <c r="CF3" s="64"/>
-      <c r="CG3" s="64"/>
-      <c r="CH3" s="64"/>
-      <c r="CI3" s="64"/>
-      <c r="CJ3" s="64"/>
-      <c r="CK3" s="64"/>
-      <c r="CL3" s="64"/>
-      <c r="CM3" s="64"/>
-      <c r="CN3" s="64"/>
-      <c r="CO3" s="64"/>
-      <c r="CP3" s="64"/>
-      <c r="CQ3" s="64"/>
-      <c r="CR3" s="64"/>
-      <c r="CS3" s="64"/>
-      <c r="CT3" s="64"/>
-      <c r="CU3" s="64"/>
-      <c r="CV3" s="64"/>
-      <c r="CW3" s="64"/>
-      <c r="CX3" s="64"/>
-      <c r="CY3" s="64"/>
-      <c r="CZ3" s="64"/>
-      <c r="DA3" s="64"/>
-      <c r="DB3" s="64"/>
-      <c r="DC3" s="64"/>
-      <c r="DD3" s="64"/>
-      <c r="DE3" s="64"/>
-      <c r="DF3" s="65"/>
+      <c r="B3" s="64"/>
+      <c r="C3" s="65"/>
+      <c r="D3" s="65"/>
+      <c r="E3" s="65"/>
+      <c r="F3" s="65"/>
+      <c r="G3" s="65"/>
+      <c r="H3" s="65"/>
+      <c r="I3" s="65"/>
+      <c r="J3" s="65"/>
+      <c r="K3" s="65"/>
+      <c r="L3" s="65"/>
+      <c r="M3" s="65"/>
+      <c r="N3" s="65"/>
+      <c r="O3" s="65"/>
+      <c r="P3" s="65"/>
+      <c r="Q3" s="65"/>
+      <c r="R3" s="65"/>
+      <c r="S3" s="65"/>
+      <c r="T3" s="65"/>
+      <c r="U3" s="65"/>
+      <c r="V3" s="65"/>
+      <c r="W3" s="65"/>
+      <c r="X3" s="65"/>
+      <c r="Y3" s="65"/>
+      <c r="Z3" s="65"/>
+      <c r="AA3" s="65"/>
+      <c r="AB3" s="65"/>
+      <c r="AC3" s="65"/>
+      <c r="AD3" s="65"/>
+      <c r="AE3" s="65"/>
+      <c r="AF3" s="65"/>
+      <c r="AG3" s="65"/>
+      <c r="AH3" s="65"/>
+      <c r="AI3" s="65"/>
+      <c r="AJ3" s="65"/>
+      <c r="AK3" s="65"/>
+      <c r="AL3" s="65"/>
+      <c r="AM3" s="65"/>
+      <c r="AN3" s="65"/>
+      <c r="AO3" s="65"/>
+      <c r="AP3" s="65"/>
+      <c r="AQ3" s="65"/>
+      <c r="AR3" s="65"/>
+      <c r="AS3" s="65"/>
+      <c r="AT3" s="65"/>
+      <c r="AU3" s="65"/>
+      <c r="AV3" s="65"/>
+      <c r="AW3" s="65"/>
+      <c r="AX3" s="65"/>
+      <c r="AY3" s="65"/>
+      <c r="AZ3" s="65"/>
+      <c r="BA3" s="65"/>
+      <c r="BB3" s="65"/>
+      <c r="BC3" s="65"/>
+      <c r="BD3" s="65"/>
+      <c r="BE3" s="65"/>
+      <c r="BF3" s="65"/>
+      <c r="BG3" s="65"/>
+      <c r="BH3" s="65"/>
+      <c r="BI3" s="65"/>
+      <c r="BJ3" s="65"/>
+      <c r="BK3" s="65"/>
+      <c r="BL3" s="65"/>
+      <c r="BM3" s="65"/>
+      <c r="BN3" s="65"/>
+      <c r="BO3" s="65"/>
+      <c r="BP3" s="65"/>
+      <c r="BQ3" s="65"/>
+      <c r="BR3" s="65"/>
+      <c r="BS3" s="65"/>
+      <c r="BT3" s="65"/>
+      <c r="BU3" s="65"/>
+      <c r="BV3" s="65"/>
+      <c r="BW3" s="65"/>
+      <c r="BX3" s="65"/>
+      <c r="BY3" s="65"/>
+      <c r="BZ3" s="65"/>
+      <c r="CA3" s="65"/>
+      <c r="CB3" s="65"/>
+      <c r="CC3" s="65"/>
+      <c r="CD3" s="65"/>
+      <c r="CE3" s="65"/>
+      <c r="CF3" s="65"/>
+      <c r="CG3" s="65"/>
+      <c r="CH3" s="65"/>
+      <c r="CI3" s="65"/>
+      <c r="CJ3" s="65"/>
+      <c r="CK3" s="65"/>
+      <c r="CL3" s="65"/>
+      <c r="CM3" s="65"/>
+      <c r="CN3" s="65"/>
+      <c r="CO3" s="65"/>
+      <c r="CP3" s="65"/>
+      <c r="CQ3" s="65"/>
+      <c r="CR3" s="65"/>
+      <c r="CS3" s="65"/>
+      <c r="CT3" s="65"/>
+      <c r="CU3" s="65"/>
+      <c r="CV3" s="65"/>
+      <c r="CW3" s="65"/>
+      <c r="CX3" s="65"/>
+      <c r="CY3" s="65"/>
+      <c r="CZ3" s="65"/>
+      <c r="DA3" s="65"/>
+      <c r="DB3" s="65"/>
+      <c r="DC3" s="65"/>
+      <c r="DD3" s="65"/>
+      <c r="DE3" s="65"/>
+      <c r="DF3" s="66"/>
     </row>
     <row r="4" spans="1:110" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="31"/>
-      <c r="B4" s="66" t="s">
-        <v>30</v>
-      </c>
-      <c r="C4" s="67"/>
-      <c r="D4" s="67"/>
-      <c r="E4" s="68"/>
-      <c r="F4" s="66" t="s">
+      <c r="B4" s="67" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="67" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="68"/>
+      <c r="H4" s="69"/>
+      <c r="I4" s="67" t="s">
+        <v>16</v>
+      </c>
+      <c r="J4" s="69"/>
+      <c r="K4" s="70" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="67"/>
-      <c r="H4" s="68"/>
-      <c r="I4" s="66" t="s">
-        <v>17</v>
-      </c>
-      <c r="J4" s="68"/>
-      <c r="K4" s="69" t="s">
-        <v>16</v>
-      </c>
-      <c r="L4" s="70"/>
-      <c r="M4" s="70"/>
-      <c r="N4" s="70"/>
-      <c r="O4" s="70"/>
-      <c r="P4" s="70"/>
-      <c r="Q4" s="70"/>
-      <c r="R4" s="70"/>
-      <c r="S4" s="70"/>
-      <c r="T4" s="70"/>
-      <c r="U4" s="70"/>
-      <c r="V4" s="70"/>
-      <c r="W4" s="70"/>
-      <c r="X4" s="70"/>
-      <c r="Y4" s="70"/>
-      <c r="Z4" s="70"/>
-      <c r="AA4" s="70"/>
-      <c r="AB4" s="70"/>
-      <c r="AC4" s="70"/>
-      <c r="AD4" s="70"/>
-      <c r="AE4" s="70"/>
-      <c r="AF4" s="70"/>
-      <c r="AG4" s="70"/>
-      <c r="AH4" s="70"/>
-      <c r="AI4" s="70"/>
-      <c r="AJ4" s="70"/>
-      <c r="AK4" s="70"/>
-      <c r="AL4" s="70"/>
-      <c r="AM4" s="70"/>
-      <c r="AN4" s="70"/>
-      <c r="AO4" s="70"/>
-      <c r="AP4" s="70"/>
-      <c r="AQ4" s="70"/>
-      <c r="AR4" s="70"/>
-      <c r="AS4" s="70"/>
-      <c r="AT4" s="70"/>
-      <c r="AU4" s="70"/>
-      <c r="AV4" s="70"/>
-      <c r="AW4" s="70"/>
-      <c r="AX4" s="70"/>
-      <c r="AY4" s="70"/>
-      <c r="AZ4" s="70"/>
-      <c r="BA4" s="70"/>
-      <c r="BB4" s="70"/>
-      <c r="BC4" s="70"/>
-      <c r="BD4" s="70"/>
-      <c r="BE4" s="70"/>
-      <c r="BF4" s="70"/>
-      <c r="BG4" s="70"/>
-      <c r="BH4" s="70"/>
-      <c r="BI4" s="70"/>
-      <c r="BJ4" s="70"/>
-      <c r="BK4" s="70"/>
-      <c r="BL4" s="70"/>
-      <c r="BM4" s="70"/>
-      <c r="BN4" s="70"/>
-      <c r="BO4" s="70"/>
-      <c r="BP4" s="70"/>
-      <c r="BQ4" s="70"/>
-      <c r="BR4" s="70"/>
-      <c r="BS4" s="70"/>
-      <c r="BT4" s="70"/>
-      <c r="BU4" s="70"/>
-      <c r="BV4" s="70"/>
-      <c r="BW4" s="70"/>
-      <c r="BX4" s="70"/>
-      <c r="BY4" s="70"/>
-      <c r="BZ4" s="70"/>
-      <c r="CA4" s="70"/>
-      <c r="CB4" s="70"/>
-      <c r="CC4" s="70"/>
-      <c r="CD4" s="70"/>
-      <c r="CE4" s="70"/>
-      <c r="CF4" s="70"/>
-      <c r="CG4" s="70"/>
-      <c r="CH4" s="70"/>
-      <c r="CI4" s="70"/>
-      <c r="CJ4" s="70"/>
-      <c r="CK4" s="70"/>
-      <c r="CL4" s="70"/>
-      <c r="CM4" s="70"/>
-      <c r="CN4" s="70"/>
-      <c r="CO4" s="70"/>
-      <c r="CP4" s="70"/>
-      <c r="CQ4" s="70"/>
-      <c r="CR4" s="70"/>
-      <c r="CS4" s="70"/>
-      <c r="CT4" s="70"/>
-      <c r="CU4" s="70"/>
-      <c r="CV4" s="70"/>
-      <c r="CW4" s="70"/>
-      <c r="CX4" s="70"/>
-      <c r="CY4" s="70"/>
-      <c r="CZ4" s="70"/>
-      <c r="DA4" s="70"/>
-      <c r="DB4" s="70"/>
-      <c r="DC4" s="70"/>
-      <c r="DD4" s="70"/>
-      <c r="DE4" s="70"/>
-      <c r="DF4" s="71"/>
+      <c r="L4" s="71"/>
+      <c r="M4" s="71"/>
+      <c r="N4" s="71"/>
+      <c r="O4" s="71"/>
+      <c r="P4" s="71"/>
+      <c r="Q4" s="71"/>
+      <c r="R4" s="71"/>
+      <c r="S4" s="71"/>
+      <c r="T4" s="71"/>
+      <c r="U4" s="71"/>
+      <c r="V4" s="71"/>
+      <c r="W4" s="71"/>
+      <c r="X4" s="71"/>
+      <c r="Y4" s="71"/>
+      <c r="Z4" s="71"/>
+      <c r="AA4" s="71"/>
+      <c r="AB4" s="71"/>
+      <c r="AC4" s="71"/>
+      <c r="AD4" s="71"/>
+      <c r="AE4" s="71"/>
+      <c r="AF4" s="71"/>
+      <c r="AG4" s="71"/>
+      <c r="AH4" s="71"/>
+      <c r="AI4" s="71"/>
+      <c r="AJ4" s="71"/>
+      <c r="AK4" s="71"/>
+      <c r="AL4" s="71"/>
+      <c r="AM4" s="71"/>
+      <c r="AN4" s="71"/>
+      <c r="AO4" s="71"/>
+      <c r="AP4" s="71"/>
+      <c r="AQ4" s="71"/>
+      <c r="AR4" s="71"/>
+      <c r="AS4" s="71"/>
+      <c r="AT4" s="71"/>
+      <c r="AU4" s="71"/>
+      <c r="AV4" s="71"/>
+      <c r="AW4" s="71"/>
+      <c r="AX4" s="71"/>
+      <c r="AY4" s="71"/>
+      <c r="AZ4" s="71"/>
+      <c r="BA4" s="71"/>
+      <c r="BB4" s="71"/>
+      <c r="BC4" s="71"/>
+      <c r="BD4" s="71"/>
+      <c r="BE4" s="71"/>
+      <c r="BF4" s="71"/>
+      <c r="BG4" s="71"/>
+      <c r="BH4" s="71"/>
+      <c r="BI4" s="71"/>
+      <c r="BJ4" s="71"/>
+      <c r="BK4" s="71"/>
+      <c r="BL4" s="71"/>
+      <c r="BM4" s="71"/>
+      <c r="BN4" s="71"/>
+      <c r="BO4" s="71"/>
+      <c r="BP4" s="71"/>
+      <c r="BQ4" s="71"/>
+      <c r="BR4" s="71"/>
+      <c r="BS4" s="71"/>
+      <c r="BT4" s="71"/>
+      <c r="BU4" s="71"/>
+      <c r="BV4" s="71"/>
+      <c r="BW4" s="71"/>
+      <c r="BX4" s="71"/>
+      <c r="BY4" s="71"/>
+      <c r="BZ4" s="71"/>
+      <c r="CA4" s="71"/>
+      <c r="CB4" s="71"/>
+      <c r="CC4" s="71"/>
+      <c r="CD4" s="71"/>
+      <c r="CE4" s="71"/>
+      <c r="CF4" s="71"/>
+      <c r="CG4" s="71"/>
+      <c r="CH4" s="71"/>
+      <c r="CI4" s="71"/>
+      <c r="CJ4" s="71"/>
+      <c r="CK4" s="71"/>
+      <c r="CL4" s="71"/>
+      <c r="CM4" s="71"/>
+      <c r="CN4" s="71"/>
+      <c r="CO4" s="71"/>
+      <c r="CP4" s="71"/>
+      <c r="CQ4" s="71"/>
+      <c r="CR4" s="71"/>
+      <c r="CS4" s="71"/>
+      <c r="CT4" s="71"/>
+      <c r="CU4" s="71"/>
+      <c r="CV4" s="71"/>
+      <c r="CW4" s="71"/>
+      <c r="CX4" s="71"/>
+      <c r="CY4" s="71"/>
+      <c r="CZ4" s="71"/>
+      <c r="DA4" s="71"/>
+      <c r="DB4" s="71"/>
+      <c r="DC4" s="71"/>
+      <c r="DD4" s="71"/>
+      <c r="DE4" s="71"/>
+      <c r="DF4" s="72"/>
     </row>
     <row r="5" spans="1:110" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="36" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" s="37" t="s">
+      <c r="G5" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="I5" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="J5" s="40" t="s">
         <v>18</v>
-      </c>
-      <c r="F5" s="55" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" s="38" t="s">
-        <v>13</v>
-      </c>
-      <c r="H5" s="37" t="s">
-        <v>14</v>
-      </c>
-      <c r="I5" s="39" t="s">
-        <v>11</v>
-      </c>
-      <c r="J5" s="40" t="s">
-        <v>19</v>
       </c>
       <c r="K5" s="41"/>
       <c r="L5" s="42"/>

--- a/form_reporting_templates/Form-1RC.xlsx
+++ b/form_reporting_templates/Form-1RC.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\echassot\Desktop\iotc-reference-forms\form_reporting_templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\echassot\Desktop\repositories\data_dissemination\iotc-reference-forms\form_reporting_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDA3FC3F-E361-4F64-AF20-BE08564462A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10FAD312-6998-48BE-B450-81CFB2BC334C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="5O4euoXp3wZfikUhVbwGMfw3acpHwF0QGHqLGhqkSE4QfnoccY7VPEsDDzzEBP5NB49UT+XbcZf1lZQTbDpLFA==" workbookSaltValue="DtEOIJKZ9UKP8oWrD+QpRw==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
@@ -140,7 +140,7 @@
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -217,6 +217,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -696,10 +704,6 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -758,6 +762,10 @@
     </xf>
     <xf numFmtId="165" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1273,7 +1281,7 @@
       <c r="C12" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="56"/>
+      <c r="D12" s="55"/>
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
       <c r="G12" s="6"/>
@@ -1284,7 +1292,7 @@
       <c r="C13" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D13" s="56"/>
+      <c r="D13" s="55"/>
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
@@ -1422,7 +1430,7 @@
       <c r="D27" s="22"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="e4jb2OkoYSh2aE7pe5vzfIukZ0Gsirj/CZARv+FE8zbU3JuyPOn5sxRwNZRQa91g0C7K+QILpJL9t3zntls0jg==" saltValue="QO6xURRvLXSBRM390wcdtA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="MPAJMHKMDh7E71vkBfNk/kd8ZSdpOJSzU53tPHgyGpVTowbGxJWEzAge5U21K78NzbmIcA20rOCSW3K6Jiov+g==" saltValue="THz5x9zEcHi/JbRcb6UtPQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="4">
     <mergeCell ref="C25:G25"/>
     <mergeCell ref="C8:D8"/>
@@ -1436,7 +1444,7 @@
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="C19" r:id="rId1" location="entities" xr:uid="{C8E8FB11-F219-464A-BC2B-3DAE2B40B804}"/>
-    <hyperlink ref="C20" r:id="rId2" location="countries" display="Flag country" xr:uid="{9812E6C2-BEE5-4C23-9A3D-B1B015FBD415}"/>
+    <hyperlink ref="C20" r:id="rId2" location="countries" xr:uid="{9812E6C2-BEE5-4C23-9A3D-B1B015FBD415}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
@@ -1457,18 +1465,18 @@
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.85546875" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" style="44" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" style="45" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" style="45" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" style="46" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.42578125" style="44" customWidth="1"/>
-    <col min="7" max="7" width="11.42578125" style="45" customWidth="1"/>
-    <col min="8" max="8" width="11.42578125" style="46" customWidth="1"/>
-    <col min="9" max="9" width="11.42578125" style="44" customWidth="1"/>
-    <col min="10" max="10" width="11.42578125" style="52" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" style="50"/>
-    <col min="12" max="109" width="9.140625" style="51"/>
-    <col min="110" max="110" width="9.140625" style="52"/>
+    <col min="2" max="2" width="11.42578125" style="43" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" style="44" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" style="44" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" style="45" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" style="43" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" style="44" customWidth="1"/>
+    <col min="8" max="8" width="11.42578125" style="45" customWidth="1"/>
+    <col min="9" max="9" width="11.42578125" style="43" customWidth="1"/>
+    <col min="10" max="10" width="11.42578125" style="51" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" style="49"/>
+    <col min="12" max="109" width="9.140625" style="50"/>
+    <col min="110" max="110" width="9.140625" style="51"/>
     <col min="111" max="16384" width="9.140625" style="24"/>
   </cols>
   <sheetData>
@@ -1831,7 +1839,7 @@
       <c r="E5" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="55" t="s">
+      <c r="F5" s="54" t="s">
         <v>10</v>
       </c>
       <c r="G5" s="38" t="s">
@@ -1846,106 +1854,106 @@
       <c r="J5" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="K5" s="41"/>
-      <c r="L5" s="42"/>
-      <c r="M5" s="42"/>
-      <c r="N5" s="42"/>
-      <c r="O5" s="42"/>
-      <c r="P5" s="42"/>
-      <c r="Q5" s="42"/>
-      <c r="R5" s="42"/>
-      <c r="S5" s="42"/>
-      <c r="T5" s="42"/>
-      <c r="U5" s="42"/>
-      <c r="V5" s="42"/>
-      <c r="W5" s="42"/>
-      <c r="X5" s="42"/>
-      <c r="Y5" s="42"/>
-      <c r="Z5" s="42"/>
-      <c r="AA5" s="42"/>
-      <c r="AB5" s="42"/>
-      <c r="AC5" s="42"/>
-      <c r="AD5" s="42"/>
-      <c r="AE5" s="42"/>
-      <c r="AF5" s="42"/>
-      <c r="AG5" s="42"/>
-      <c r="AH5" s="42"/>
-      <c r="AI5" s="42"/>
-      <c r="AJ5" s="42"/>
-      <c r="AK5" s="42"/>
-      <c r="AL5" s="42"/>
-      <c r="AM5" s="42"/>
-      <c r="AN5" s="42"/>
-      <c r="AO5" s="42"/>
-      <c r="AP5" s="42"/>
-      <c r="AQ5" s="42"/>
-      <c r="AR5" s="42"/>
-      <c r="AS5" s="42"/>
-      <c r="AT5" s="42"/>
-      <c r="AU5" s="42"/>
-      <c r="AV5" s="42"/>
-      <c r="AW5" s="42"/>
-      <c r="AX5" s="42"/>
-      <c r="AY5" s="42"/>
-      <c r="AZ5" s="42"/>
-      <c r="BA5" s="42"/>
-      <c r="BB5" s="42"/>
-      <c r="BC5" s="42"/>
-      <c r="BD5" s="42"/>
-      <c r="BE5" s="42"/>
-      <c r="BF5" s="42"/>
-      <c r="BG5" s="42"/>
-      <c r="BH5" s="42"/>
-      <c r="BI5" s="42"/>
-      <c r="BJ5" s="42"/>
-      <c r="BK5" s="42"/>
-      <c r="BL5" s="42"/>
-      <c r="BM5" s="42"/>
-      <c r="BN5" s="42"/>
-      <c r="BO5" s="42"/>
-      <c r="BP5" s="42"/>
-      <c r="BQ5" s="42"/>
-      <c r="BR5" s="42"/>
-      <c r="BS5" s="42"/>
-      <c r="BT5" s="42"/>
-      <c r="BU5" s="42"/>
-      <c r="BV5" s="42"/>
-      <c r="BW5" s="42"/>
-      <c r="BX5" s="42"/>
-      <c r="BY5" s="42"/>
-      <c r="BZ5" s="42"/>
-      <c r="CA5" s="42"/>
-      <c r="CB5" s="42"/>
-      <c r="CC5" s="42"/>
-      <c r="CD5" s="42"/>
-      <c r="CE5" s="42"/>
-      <c r="CF5" s="42"/>
-      <c r="CG5" s="42"/>
-      <c r="CH5" s="42"/>
-      <c r="CI5" s="42"/>
-      <c r="CJ5" s="42"/>
-      <c r="CK5" s="42"/>
-      <c r="CL5" s="42"/>
-      <c r="CM5" s="42"/>
-      <c r="CN5" s="42"/>
-      <c r="CO5" s="42"/>
-      <c r="CP5" s="42"/>
-      <c r="CQ5" s="42"/>
-      <c r="CR5" s="42"/>
-      <c r="CS5" s="42"/>
-      <c r="CT5" s="42"/>
-      <c r="CU5" s="42"/>
-      <c r="CV5" s="42"/>
-      <c r="CW5" s="42"/>
-      <c r="CX5" s="42"/>
-      <c r="CY5" s="42"/>
-      <c r="CZ5" s="42"/>
-      <c r="DA5" s="42"/>
-      <c r="DB5" s="42"/>
-      <c r="DC5" s="42"/>
-      <c r="DD5" s="42"/>
-      <c r="DE5" s="42"/>
-      <c r="DF5" s="43"/>
+      <c r="K5" s="56"/>
+      <c r="L5" s="41"/>
+      <c r="M5" s="41"/>
+      <c r="N5" s="41"/>
+      <c r="O5" s="41"/>
+      <c r="P5" s="41"/>
+      <c r="Q5" s="41"/>
+      <c r="R5" s="41"/>
+      <c r="S5" s="41"/>
+      <c r="T5" s="41"/>
+      <c r="U5" s="41"/>
+      <c r="V5" s="41"/>
+      <c r="W5" s="41"/>
+      <c r="X5" s="41"/>
+      <c r="Y5" s="41"/>
+      <c r="Z5" s="41"/>
+      <c r="AA5" s="41"/>
+      <c r="AB5" s="41"/>
+      <c r="AC5" s="41"/>
+      <c r="AD5" s="41"/>
+      <c r="AE5" s="41"/>
+      <c r="AF5" s="41"/>
+      <c r="AG5" s="41"/>
+      <c r="AH5" s="41"/>
+      <c r="AI5" s="41"/>
+      <c r="AJ5" s="41"/>
+      <c r="AK5" s="41"/>
+      <c r="AL5" s="41"/>
+      <c r="AM5" s="41"/>
+      <c r="AN5" s="41"/>
+      <c r="AO5" s="41"/>
+      <c r="AP5" s="41"/>
+      <c r="AQ5" s="41"/>
+      <c r="AR5" s="41"/>
+      <c r="AS5" s="41"/>
+      <c r="AT5" s="41"/>
+      <c r="AU5" s="41"/>
+      <c r="AV5" s="41"/>
+      <c r="AW5" s="41"/>
+      <c r="AX5" s="41"/>
+      <c r="AY5" s="41"/>
+      <c r="AZ5" s="41"/>
+      <c r="BA5" s="41"/>
+      <c r="BB5" s="41"/>
+      <c r="BC5" s="41"/>
+      <c r="BD5" s="41"/>
+      <c r="BE5" s="41"/>
+      <c r="BF5" s="41"/>
+      <c r="BG5" s="41"/>
+      <c r="BH5" s="41"/>
+      <c r="BI5" s="41"/>
+      <c r="BJ5" s="41"/>
+      <c r="BK5" s="41"/>
+      <c r="BL5" s="41"/>
+      <c r="BM5" s="41"/>
+      <c r="BN5" s="41"/>
+      <c r="BO5" s="41"/>
+      <c r="BP5" s="41"/>
+      <c r="BQ5" s="41"/>
+      <c r="BR5" s="41"/>
+      <c r="BS5" s="41"/>
+      <c r="BT5" s="41"/>
+      <c r="BU5" s="41"/>
+      <c r="BV5" s="41"/>
+      <c r="BW5" s="41"/>
+      <c r="BX5" s="41"/>
+      <c r="BY5" s="41"/>
+      <c r="BZ5" s="41"/>
+      <c r="CA5" s="41"/>
+      <c r="CB5" s="41"/>
+      <c r="CC5" s="41"/>
+      <c r="CD5" s="41"/>
+      <c r="CE5" s="41"/>
+      <c r="CF5" s="41"/>
+      <c r="CG5" s="41"/>
+      <c r="CH5" s="41"/>
+      <c r="CI5" s="41"/>
+      <c r="CJ5" s="41"/>
+      <c r="CK5" s="41"/>
+      <c r="CL5" s="41"/>
+      <c r="CM5" s="41"/>
+      <c r="CN5" s="41"/>
+      <c r="CO5" s="41"/>
+      <c r="CP5" s="41"/>
+      <c r="CQ5" s="41"/>
+      <c r="CR5" s="41"/>
+      <c r="CS5" s="41"/>
+      <c r="CT5" s="41"/>
+      <c r="CU5" s="41"/>
+      <c r="CV5" s="41"/>
+      <c r="CW5" s="41"/>
+      <c r="CX5" s="41"/>
+      <c r="CY5" s="41"/>
+      <c r="CZ5" s="41"/>
+      <c r="DA5" s="41"/>
+      <c r="DB5" s="41"/>
+      <c r="DC5" s="41"/>
+      <c r="DD5" s="41"/>
+      <c r="DE5" s="41"/>
+      <c r="DF5" s="42"/>
     </row>
     <row r="6" spans="1:110" x14ac:dyDescent="0.25">
       <c r="B6" s="25"/>
@@ -1956,107 +1964,107 @@
       <c r="G6" s="26"/>
       <c r="H6" s="27"/>
       <c r="I6" s="25"/>
-      <c r="J6" s="53"/>
-      <c r="K6" s="47"/>
-      <c r="L6" s="48"/>
-      <c r="M6" s="48"/>
-      <c r="N6" s="48"/>
-      <c r="O6" s="48"/>
-      <c r="P6" s="48"/>
-      <c r="Q6" s="48"/>
-      <c r="R6" s="48"/>
-      <c r="S6" s="48"/>
-      <c r="T6" s="48"/>
-      <c r="U6" s="48"/>
-      <c r="V6" s="48"/>
-      <c r="W6" s="48"/>
-      <c r="X6" s="48"/>
-      <c r="Y6" s="48"/>
-      <c r="Z6" s="48"/>
-      <c r="AA6" s="48"/>
-      <c r="AB6" s="48"/>
-      <c r="AC6" s="48"/>
-      <c r="AD6" s="48"/>
-      <c r="AE6" s="48"/>
-      <c r="AF6" s="48"/>
-      <c r="AG6" s="48"/>
-      <c r="AH6" s="48"/>
-      <c r="AI6" s="48"/>
-      <c r="AJ6" s="48"/>
-      <c r="AK6" s="48"/>
-      <c r="AL6" s="48"/>
-      <c r="AM6" s="48"/>
-      <c r="AN6" s="48"/>
-      <c r="AO6" s="48"/>
-      <c r="AP6" s="48"/>
-      <c r="AQ6" s="48"/>
-      <c r="AR6" s="48"/>
-      <c r="AS6" s="48"/>
-      <c r="AT6" s="48"/>
-      <c r="AU6" s="48"/>
-      <c r="AV6" s="48"/>
-      <c r="AW6" s="48"/>
-      <c r="AX6" s="48"/>
-      <c r="AY6" s="48"/>
-      <c r="AZ6" s="48"/>
-      <c r="BA6" s="48"/>
-      <c r="BB6" s="48"/>
-      <c r="BC6" s="48"/>
-      <c r="BD6" s="48"/>
-      <c r="BE6" s="48"/>
-      <c r="BF6" s="48"/>
-      <c r="BG6" s="48"/>
-      <c r="BH6" s="48"/>
-      <c r="BI6" s="48"/>
-      <c r="BJ6" s="48"/>
-      <c r="BK6" s="48"/>
-      <c r="BL6" s="48"/>
-      <c r="BM6" s="48"/>
-      <c r="BN6" s="48"/>
-      <c r="BO6" s="48"/>
-      <c r="BP6" s="48"/>
-      <c r="BQ6" s="48"/>
-      <c r="BR6" s="48"/>
-      <c r="BS6" s="48"/>
-      <c r="BT6" s="48"/>
-      <c r="BU6" s="48"/>
-      <c r="BV6" s="48"/>
-      <c r="BW6" s="48"/>
-      <c r="BX6" s="48"/>
-      <c r="BY6" s="48"/>
-      <c r="BZ6" s="48"/>
-      <c r="CA6" s="48"/>
-      <c r="CB6" s="48"/>
-      <c r="CC6" s="48"/>
-      <c r="CD6" s="48"/>
-      <c r="CE6" s="48"/>
-      <c r="CF6" s="48"/>
-      <c r="CG6" s="48"/>
-      <c r="CH6" s="48"/>
-      <c r="CI6" s="48"/>
-      <c r="CJ6" s="48"/>
-      <c r="CK6" s="48"/>
-      <c r="CL6" s="48"/>
-      <c r="CM6" s="48"/>
-      <c r="CN6" s="48"/>
-      <c r="CO6" s="48"/>
-      <c r="CP6" s="48"/>
-      <c r="CQ6" s="48"/>
-      <c r="CR6" s="48"/>
-      <c r="CS6" s="48"/>
-      <c r="CT6" s="48"/>
-      <c r="CU6" s="48"/>
-      <c r="CV6" s="48"/>
-      <c r="CW6" s="48"/>
-      <c r="CX6" s="48"/>
-      <c r="CY6" s="48"/>
-      <c r="CZ6" s="48"/>
-      <c r="DA6" s="48"/>
-      <c r="DB6" s="48"/>
-      <c r="DC6" s="48"/>
-      <c r="DD6" s="48"/>
-      <c r="DE6" s="48"/>
-      <c r="DF6" s="49"/>
+      <c r="J6" s="52"/>
+      <c r="K6" s="46"/>
+      <c r="L6" s="47"/>
+      <c r="M6" s="47"/>
+      <c r="N6" s="47"/>
+      <c r="O6" s="47"/>
+      <c r="P6" s="47"/>
+      <c r="Q6" s="47"/>
+      <c r="R6" s="47"/>
+      <c r="S6" s="47"/>
+      <c r="T6" s="47"/>
+      <c r="U6" s="47"/>
+      <c r="V6" s="47"/>
+      <c r="W6" s="47"/>
+      <c r="X6" s="47"/>
+      <c r="Y6" s="47"/>
+      <c r="Z6" s="47"/>
+      <c r="AA6" s="47"/>
+      <c r="AB6" s="47"/>
+      <c r="AC6" s="47"/>
+      <c r="AD6" s="47"/>
+      <c r="AE6" s="47"/>
+      <c r="AF6" s="47"/>
+      <c r="AG6" s="47"/>
+      <c r="AH6" s="47"/>
+      <c r="AI6" s="47"/>
+      <c r="AJ6" s="47"/>
+      <c r="AK6" s="47"/>
+      <c r="AL6" s="47"/>
+      <c r="AM6" s="47"/>
+      <c r="AN6" s="47"/>
+      <c r="AO6" s="47"/>
+      <c r="AP6" s="47"/>
+      <c r="AQ6" s="47"/>
+      <c r="AR6" s="47"/>
+      <c r="AS6" s="47"/>
+      <c r="AT6" s="47"/>
+      <c r="AU6" s="47"/>
+      <c r="AV6" s="47"/>
+      <c r="AW6" s="47"/>
+      <c r="AX6" s="47"/>
+      <c r="AY6" s="47"/>
+      <c r="AZ6" s="47"/>
+      <c r="BA6" s="47"/>
+      <c r="BB6" s="47"/>
+      <c r="BC6" s="47"/>
+      <c r="BD6" s="47"/>
+      <c r="BE6" s="47"/>
+      <c r="BF6" s="47"/>
+      <c r="BG6" s="47"/>
+      <c r="BH6" s="47"/>
+      <c r="BI6" s="47"/>
+      <c r="BJ6" s="47"/>
+      <c r="BK6" s="47"/>
+      <c r="BL6" s="47"/>
+      <c r="BM6" s="47"/>
+      <c r="BN6" s="47"/>
+      <c r="BO6" s="47"/>
+      <c r="BP6" s="47"/>
+      <c r="BQ6" s="47"/>
+      <c r="BR6" s="47"/>
+      <c r="BS6" s="47"/>
+      <c r="BT6" s="47"/>
+      <c r="BU6" s="47"/>
+      <c r="BV6" s="47"/>
+      <c r="BW6" s="47"/>
+      <c r="BX6" s="47"/>
+      <c r="BY6" s="47"/>
+      <c r="BZ6" s="47"/>
+      <c r="CA6" s="47"/>
+      <c r="CB6" s="47"/>
+      <c r="CC6" s="47"/>
+      <c r="CD6" s="47"/>
+      <c r="CE6" s="47"/>
+      <c r="CF6" s="47"/>
+      <c r="CG6" s="47"/>
+      <c r="CH6" s="47"/>
+      <c r="CI6" s="47"/>
+      <c r="CJ6" s="47"/>
+      <c r="CK6" s="47"/>
+      <c r="CL6" s="47"/>
+      <c r="CM6" s="47"/>
+      <c r="CN6" s="47"/>
+      <c r="CO6" s="47"/>
+      <c r="CP6" s="47"/>
+      <c r="CQ6" s="47"/>
+      <c r="CR6" s="47"/>
+      <c r="CS6" s="47"/>
+      <c r="CT6" s="47"/>
+      <c r="CU6" s="47"/>
+      <c r="CV6" s="47"/>
+      <c r="CW6" s="47"/>
+      <c r="CX6" s="47"/>
+      <c r="CY6" s="47"/>
+      <c r="CZ6" s="47"/>
+      <c r="DA6" s="47"/>
+      <c r="DB6" s="47"/>
+      <c r="DC6" s="47"/>
+      <c r="DD6" s="47"/>
+      <c r="DE6" s="47"/>
+      <c r="DF6" s="48"/>
     </row>
     <row r="7" spans="1:110" x14ac:dyDescent="0.25">
       <c r="B7" s="28"/>
@@ -2067,7 +2075,7 @@
       <c r="G7" s="29"/>
       <c r="H7" s="30"/>
       <c r="I7" s="28"/>
-      <c r="J7" s="54"/>
+      <c r="J7" s="53"/>
     </row>
     <row r="8" spans="1:110" x14ac:dyDescent="0.25">
       <c r="B8" s="28"/>
@@ -2078,7 +2086,7 @@
       <c r="G8" s="29"/>
       <c r="H8" s="30"/>
       <c r="I8" s="28"/>
-      <c r="J8" s="54"/>
+      <c r="J8" s="53"/>
     </row>
     <row r="9" spans="1:110" x14ac:dyDescent="0.25">
       <c r="B9" s="28"/>
@@ -2089,7 +2097,7 @@
       <c r="G9" s="29"/>
       <c r="H9" s="30"/>
       <c r="I9" s="28"/>
-      <c r="J9" s="54"/>
+      <c r="J9" s="53"/>
     </row>
     <row r="10" spans="1:110" x14ac:dyDescent="0.25">
       <c r="B10" s="28"/>
@@ -2100,7 +2108,7 @@
       <c r="G10" s="29"/>
       <c r="H10" s="30"/>
       <c r="I10" s="28"/>
-      <c r="J10" s="54"/>
+      <c r="J10" s="53"/>
     </row>
     <row r="11" spans="1:110" x14ac:dyDescent="0.25">
       <c r="B11" s="28"/>
@@ -2111,7 +2119,7 @@
       <c r="G11" s="29"/>
       <c r="H11" s="30"/>
       <c r="I11" s="28"/>
-      <c r="J11" s="54"/>
+      <c r="J11" s="53"/>
     </row>
     <row r="12" spans="1:110" x14ac:dyDescent="0.25">
       <c r="B12" s="28"/>
@@ -2122,7 +2130,7 @@
       <c r="G12" s="29"/>
       <c r="H12" s="30"/>
       <c r="I12" s="28"/>
-      <c r="J12" s="54"/>
+      <c r="J12" s="53"/>
     </row>
     <row r="13" spans="1:110" x14ac:dyDescent="0.25">
       <c r="B13" s="28"/>
@@ -2133,7 +2141,7 @@
       <c r="G13" s="29"/>
       <c r="H13" s="30"/>
       <c r="I13" s="28"/>
-      <c r="J13" s="54"/>
+      <c r="J13" s="53"/>
     </row>
     <row r="14" spans="1:110" x14ac:dyDescent="0.25">
       <c r="B14" s="28"/>
@@ -2144,7 +2152,7 @@
       <c r="G14" s="29"/>
       <c r="H14" s="30"/>
       <c r="I14" s="28"/>
-      <c r="J14" s="54"/>
+      <c r="J14" s="53"/>
     </row>
     <row r="15" spans="1:110" x14ac:dyDescent="0.25">
       <c r="B15" s="28"/>
@@ -2155,7 +2163,7 @@
       <c r="G15" s="29"/>
       <c r="H15" s="30"/>
       <c r="I15" s="28"/>
-      <c r="J15" s="54"/>
+      <c r="J15" s="53"/>
     </row>
     <row r="16" spans="1:110" x14ac:dyDescent="0.25">
       <c r="B16" s="28"/>
@@ -2166,7 +2174,7 @@
       <c r="G16" s="29"/>
       <c r="H16" s="30"/>
       <c r="I16" s="28"/>
-      <c r="J16" s="54"/>
+      <c r="J16" s="53"/>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B17" s="28"/>
@@ -2177,7 +2185,7 @@
       <c r="G17" s="29"/>
       <c r="H17" s="30"/>
       <c r="I17" s="28"/>
-      <c r="J17" s="54"/>
+      <c r="J17" s="53"/>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B18" s="28"/>
@@ -2188,7 +2196,7 @@
       <c r="G18" s="29"/>
       <c r="H18" s="30"/>
       <c r="I18" s="28"/>
-      <c r="J18" s="54"/>
+      <c r="J18" s="53"/>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B19" s="28"/>
@@ -2199,7 +2207,7 @@
       <c r="G19" s="29"/>
       <c r="H19" s="30"/>
       <c r="I19" s="28"/>
-      <c r="J19" s="54"/>
+      <c r="J19" s="53"/>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B20" s="28"/>
@@ -2210,7 +2218,7 @@
       <c r="G20" s="29"/>
       <c r="H20" s="30"/>
       <c r="I20" s="28"/>
-      <c r="J20" s="54"/>
+      <c r="J20" s="53"/>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B21" s="28"/>
@@ -2221,7 +2229,7 @@
       <c r="G21" s="29"/>
       <c r="H21" s="30"/>
       <c r="I21" s="28"/>
-      <c r="J21" s="54"/>
+      <c r="J21" s="53"/>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B22" s="28"/>
@@ -2232,7 +2240,7 @@
       <c r="G22" s="29"/>
       <c r="H22" s="30"/>
       <c r="I22" s="28"/>
-      <c r="J22" s="54"/>
+      <c r="J22" s="53"/>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B23" s="28"/>
@@ -2243,7 +2251,7 @@
       <c r="G23" s="29"/>
       <c r="H23" s="30"/>
       <c r="I23" s="28"/>
-      <c r="J23" s="54"/>
+      <c r="J23" s="53"/>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B24" s="28"/>
@@ -2254,7 +2262,7 @@
       <c r="G24" s="29"/>
       <c r="H24" s="30"/>
       <c r="I24" s="28"/>
-      <c r="J24" s="54"/>
+      <c r="J24" s="53"/>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B25" s="28"/>
@@ -2265,7 +2273,7 @@
       <c r="G25" s="29"/>
       <c r="H25" s="30"/>
       <c r="I25" s="28"/>
-      <c r="J25" s="54"/>
+      <c r="J25" s="53"/>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B26" s="28"/>
@@ -2276,7 +2284,7 @@
       <c r="G26" s="29"/>
       <c r="H26" s="30"/>
       <c r="I26" s="28"/>
-      <c r="J26" s="54"/>
+      <c r="J26" s="53"/>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B27" s="28"/>
@@ -2287,7 +2295,7 @@
       <c r="G27" s="29"/>
       <c r="H27" s="30"/>
       <c r="I27" s="28"/>
-      <c r="J27" s="54"/>
+      <c r="J27" s="53"/>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B28" s="28"/>
@@ -2298,7 +2306,7 @@
       <c r="G28" s="29"/>
       <c r="H28" s="30"/>
       <c r="I28" s="28"/>
-      <c r="J28" s="54"/>
+      <c r="J28" s="53"/>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B29" s="28"/>
@@ -2309,7 +2317,7 @@
       <c r="G29" s="29"/>
       <c r="H29" s="30"/>
       <c r="I29" s="28"/>
-      <c r="J29" s="54"/>
+      <c r="J29" s="53"/>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B30" s="28"/>
@@ -2320,7 +2328,7 @@
       <c r="G30" s="29"/>
       <c r="H30" s="30"/>
       <c r="I30" s="28"/>
-      <c r="J30" s="54"/>
+      <c r="J30" s="53"/>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B31" s="28"/>
@@ -2331,7 +2339,7 @@
       <c r="G31" s="29"/>
       <c r="H31" s="30"/>
       <c r="I31" s="28"/>
-      <c r="J31" s="54"/>
+      <c r="J31" s="53"/>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B32" s="28"/>
@@ -2342,7 +2350,7 @@
       <c r="G32" s="29"/>
       <c r="H32" s="30"/>
       <c r="I32" s="28"/>
-      <c r="J32" s="54"/>
+      <c r="J32" s="53"/>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B33" s="28"/>
@@ -2353,7 +2361,7 @@
       <c r="G33" s="29"/>
       <c r="H33" s="30"/>
       <c r="I33" s="28"/>
-      <c r="J33" s="54"/>
+      <c r="J33" s="53"/>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B34" s="28"/>
@@ -2364,7 +2372,7 @@
       <c r="G34" s="29"/>
       <c r="H34" s="30"/>
       <c r="I34" s="28"/>
-      <c r="J34" s="54"/>
+      <c r="J34" s="53"/>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B35" s="28"/>
@@ -2375,7 +2383,7 @@
       <c r="G35" s="29"/>
       <c r="H35" s="30"/>
       <c r="I35" s="28"/>
-      <c r="J35" s="54"/>
+      <c r="J35" s="53"/>
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B36" s="28"/>
@@ -2386,7 +2394,7 @@
       <c r="G36" s="29"/>
       <c r="H36" s="30"/>
       <c r="I36" s="28"/>
-      <c r="J36" s="54"/>
+      <c r="J36" s="53"/>
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B37" s="28"/>
@@ -2397,7 +2405,7 @@
       <c r="G37" s="29"/>
       <c r="H37" s="30"/>
       <c r="I37" s="28"/>
-      <c r="J37" s="54"/>
+      <c r="J37" s="53"/>
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B38" s="28"/>
@@ -2408,7 +2416,7 @@
       <c r="G38" s="29"/>
       <c r="H38" s="30"/>
       <c r="I38" s="28"/>
-      <c r="J38" s="54"/>
+      <c r="J38" s="53"/>
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B39" s="28"/>
@@ -2419,7 +2427,7 @@
       <c r="G39" s="29"/>
       <c r="H39" s="30"/>
       <c r="I39" s="28"/>
-      <c r="J39" s="54"/>
+      <c r="J39" s="53"/>
     </row>
     <row r="40" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B40" s="28"/>
@@ -2430,7 +2438,7 @@
       <c r="G40" s="29"/>
       <c r="H40" s="30"/>
       <c r="I40" s="28"/>
-      <c r="J40" s="54"/>
+      <c r="J40" s="53"/>
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B41" s="28"/>
@@ -2441,7 +2449,7 @@
       <c r="G41" s="29"/>
       <c r="H41" s="30"/>
       <c r="I41" s="28"/>
-      <c r="J41" s="54"/>
+      <c r="J41" s="53"/>
     </row>
     <row r="42" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B42" s="28"/>
@@ -2452,7 +2460,7 @@
       <c r="G42" s="29"/>
       <c r="H42" s="30"/>
       <c r="I42" s="28"/>
-      <c r="J42" s="54"/>
+      <c r="J42" s="53"/>
     </row>
     <row r="43" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B43" s="28"/>
@@ -2463,7 +2471,7 @@
       <c r="G43" s="29"/>
       <c r="H43" s="30"/>
       <c r="I43" s="28"/>
-      <c r="J43" s="54"/>
+      <c r="J43" s="53"/>
     </row>
     <row r="44" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B44" s="28"/>
@@ -2474,7 +2482,7 @@
       <c r="G44" s="29"/>
       <c r="H44" s="30"/>
       <c r="I44" s="28"/>
-      <c r="J44" s="54"/>
+      <c r="J44" s="53"/>
     </row>
     <row r="45" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B45" s="28"/>
@@ -2485,7 +2493,7 @@
       <c r="G45" s="29"/>
       <c r="H45" s="30"/>
       <c r="I45" s="28"/>
-      <c r="J45" s="54"/>
+      <c r="J45" s="53"/>
     </row>
     <row r="46" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B46" s="28"/>
@@ -2496,7 +2504,7 @@
       <c r="G46" s="29"/>
       <c r="H46" s="30"/>
       <c r="I46" s="28"/>
-      <c r="J46" s="54"/>
+      <c r="J46" s="53"/>
     </row>
     <row r="47" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B47" s="28"/>
@@ -2507,7 +2515,7 @@
       <c r="G47" s="29"/>
       <c r="H47" s="30"/>
       <c r="I47" s="28"/>
-      <c r="J47" s="54"/>
+      <c r="J47" s="53"/>
     </row>
     <row r="48" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B48" s="28"/>
@@ -2518,7 +2526,7 @@
       <c r="G48" s="29"/>
       <c r="H48" s="30"/>
       <c r="I48" s="28"/>
-      <c r="J48" s="54"/>
+      <c r="J48" s="53"/>
     </row>
     <row r="49" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B49" s="28"/>
@@ -2529,7 +2537,7 @@
       <c r="G49" s="29"/>
       <c r="H49" s="30"/>
       <c r="I49" s="28"/>
-      <c r="J49" s="54"/>
+      <c r="J49" s="53"/>
     </row>
     <row r="50" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B50" s="28"/>
@@ -2540,7 +2548,7 @@
       <c r="G50" s="29"/>
       <c r="H50" s="30"/>
       <c r="I50" s="28"/>
-      <c r="J50" s="54"/>
+      <c r="J50" s="53"/>
     </row>
     <row r="51" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B51" s="28"/>
@@ -2551,7 +2559,7 @@
       <c r="G51" s="29"/>
       <c r="H51" s="30"/>
       <c r="I51" s="28"/>
-      <c r="J51" s="54"/>
+      <c r="J51" s="53"/>
     </row>
     <row r="52" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B52" s="28"/>
@@ -2562,7 +2570,7 @@
       <c r="G52" s="29"/>
       <c r="H52" s="30"/>
       <c r="I52" s="28"/>
-      <c r="J52" s="54"/>
+      <c r="J52" s="53"/>
     </row>
     <row r="53" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B53" s="28"/>
@@ -2573,7 +2581,7 @@
       <c r="G53" s="29"/>
       <c r="H53" s="30"/>
       <c r="I53" s="28"/>
-      <c r="J53" s="54"/>
+      <c r="J53" s="53"/>
     </row>
     <row r="54" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B54" s="28"/>
@@ -2584,7 +2592,7 @@
       <c r="G54" s="29"/>
       <c r="H54" s="30"/>
       <c r="I54" s="28"/>
-      <c r="J54" s="54"/>
+      <c r="J54" s="53"/>
     </row>
     <row r="55" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B55" s="28"/>
@@ -2595,10 +2603,10 @@
       <c r="G55" s="29"/>
       <c r="H55" s="30"/>
       <c r="I55" s="28"/>
-      <c r="J55" s="54"/>
+      <c r="J55" s="53"/>
     </row>
   </sheetData>
-  <sheetProtection selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="g2/Z765IujREFNzjMvM+R5OCGgOyKBAvIdVQJn2S1d6kfsFptg6Dp/KUO1J3imMZJMmrl4LYeQh/Sc+2VtX3Xw==" saltValue="8CfP7/MHo4SnPOGYKh14hA==" spinCount="100000" sheet="1" selectLockedCells="1"/>
   <mergeCells count="5">
     <mergeCell ref="F4:H4"/>
     <mergeCell ref="I4:J4"/>
@@ -2618,7 +2626,7 @@
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="C5" r:id="rId1" location="fisheries" xr:uid="{ED342AB9-03F0-4794-A5E6-2197300C6DDA}"/>
-    <hyperlink ref="K4:DF4" r:id="rId2" location="species" display="Catch by species (live weight equivalent, t)" xr:uid="{6D429590-9E18-4205-80BE-F7414C6B378F}"/>
+    <hyperlink ref="K4:DF4" r:id="rId2" location="allSpecies" display="Catch by species (live weight equivalent, t)" xr:uid="{6D429590-9E18-4205-80BE-F7414C6B378F}"/>
     <hyperlink ref="I5" r:id="rId3" location="coverageTypes" xr:uid="{724F0376-2EAE-4203-9E7A-1897AD6BE90D}"/>
     <hyperlink ref="H5" r:id="rId4" location="processingsRC" xr:uid="{5844FCEC-A2EF-428B-9D50-04D8BF8E519B}"/>
     <hyperlink ref="G5" r:id="rId5" location="sourcesRC" xr:uid="{5E959ED6-0253-4C6D-BC73-58B2DECD8EF2}"/>

--- a/form_reporting_templates/Form-1RC.xlsx
+++ b/form_reporting_templates/Form-1RC.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\echassot\Desktop\repositories\data_dissemination\iotc-reference-forms\form_reporting_templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\echassot\Desktop\repositories\data-reporting\iotc-reference-forms\form_reporting_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10FAD312-6998-48BE-B450-81CFB2BC334C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71F8A4CA-0912-420E-9927-076251F80989}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="5O4euoXp3wZfikUhVbwGMfw3acpHwF0QGHqLGhqkSE4QfnoccY7VPEsDDzzEBP5NB49UT+XbcZf1lZQTbDpLFA==" workbookSaltValue="DtEOIJKZ9UKP8oWrD+QpRw==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="1" r:id="rId1"/>
@@ -258,7 +258,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="28">
+  <borders count="30">
     <border>
       <left/>
       <right/>
@@ -589,6 +589,30 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="medium">
         <color indexed="64"/>
       </top>
@@ -602,7 +626,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -810,18 +834,8 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1824,7 +1838,7 @@
       <c r="DC4" s="71"/>
       <c r="DD4" s="71"/>
       <c r="DE4" s="71"/>
-      <c r="DF4" s="72"/>
+      <c r="DF4" s="71"/>
     </row>
     <row r="5" spans="1:110" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="35" t="s">
@@ -2606,7 +2620,7 @@
       <c r="J55" s="53"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="g2/Z765IujREFNzjMvM+R5OCGgOyKBAvIdVQJn2S1d6kfsFptg6Dp/KUO1J3imMZJMmrl4LYeQh/Sc+2VtX3Xw==" saltValue="8CfP7/MHo4SnPOGYKh14hA==" spinCount="100000" sheet="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="o/aMX/ctE+vE+3wwnBsLSp3jQR82RU8JgABtS9/SA1WckTSR/wNyQychBaXnf4BG3tOGHt0cp2lt5BgZXsneZg==" saltValue="O5OKEDbE8C45hfR0YqTPtA==" spinCount="100000" sheet="1" selectLockedCells="1"/>
   <mergeCells count="5">
     <mergeCell ref="F4:H4"/>
     <mergeCell ref="I4:J4"/>
@@ -2626,20 +2640,15 @@
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="C5" r:id="rId1" location="fisheries" xr:uid="{ED342AB9-03F0-4794-A5E6-2197300C6DDA}"/>
-    <hyperlink ref="K4:DF4" r:id="rId2" location="allSpecies" display="Catch by species (live weight equivalent, t)" xr:uid="{6D429590-9E18-4205-80BE-F7414C6B378F}"/>
-    <hyperlink ref="I5" r:id="rId3" location="coverageTypes" xr:uid="{724F0376-2EAE-4203-9E7A-1897AD6BE90D}"/>
-    <hyperlink ref="H5" r:id="rId4" location="processingsRC" xr:uid="{5844FCEC-A2EF-428B-9D50-04D8BF8E519B}"/>
-    <hyperlink ref="G5" r:id="rId5" location="sourcesRC" xr:uid="{5E959ED6-0253-4C6D-BC73-58B2DECD8EF2}"/>
-    <hyperlink ref="F5" r:id="rId6" location="types" xr:uid="{2597D7D4-6064-4ED1-8FC4-B173B89E3472}"/>
-    <hyperlink ref="E5" r:id="rId7" location="retainReasons" xr:uid="{F3495450-D39C-4DF1-B164-52AAC0FEF034}"/>
-    <hyperlink ref="D5" r:id="rId8" location="IOTCareasMain" xr:uid="{63734AA0-E854-4685-861A-F679BE0AC281}"/>
-    <hyperlink ref="BD4:BM4" r:id="rId9" location="species" display="Catch by species (live weight equivalent, t)" xr:uid="{EB82D4FF-753B-4014-970A-379A57B589E3}"/>
-    <hyperlink ref="AT4:BC4" r:id="rId10" location="species" display="Catch by species (live weight equivalent, t)" xr:uid="{0A31174B-268F-4EB6-A38F-8B2A0B88DA3E}"/>
-    <hyperlink ref="AJ4:AS4" r:id="rId11" location="species" display="Catch by species (live weight equivalent, t)" xr:uid="{A38A1D9F-00CA-41AD-9F14-206078B78027}"/>
-    <hyperlink ref="Z4:AI4" r:id="rId12" location="species" display="Catch by species (live weight equivalent, t)" xr:uid="{7D67B08B-20D4-4621-A791-A9D4AC7454C0}"/>
-    <hyperlink ref="P4:Y4" r:id="rId13" location="species" display="Catch by species (live weight equivalent, t)" xr:uid="{678DEDB5-3D8A-4EA1-878F-4DD628D30BF9}"/>
+    <hyperlink ref="I5" r:id="rId2" location="coverageTypes" xr:uid="{724F0376-2EAE-4203-9E7A-1897AD6BE90D}"/>
+    <hyperlink ref="H5" r:id="rId3" location="processingsRC" xr:uid="{5844FCEC-A2EF-428B-9D50-04D8BF8E519B}"/>
+    <hyperlink ref="G5" r:id="rId4" location="sourcesRC" xr:uid="{5E959ED6-0253-4C6D-BC73-58B2DECD8EF2}"/>
+    <hyperlink ref="F5" r:id="rId5" location="types" xr:uid="{2597D7D4-6064-4ED1-8FC4-B173B89E3472}"/>
+    <hyperlink ref="E5" r:id="rId6" location="retainReasons" xr:uid="{F3495450-D39C-4DF1-B164-52AAC0FEF034}"/>
+    <hyperlink ref="D5" r:id="rId7" location="IOTCareasMain" xr:uid="{63734AA0-E854-4685-861A-F679BE0AC281}"/>
+    <hyperlink ref="K4:DF4" r:id="rId8" location="allSpecies" display="Catch by species (live weight equivalent, t)" xr:uid="{514550A4-1415-42DF-ABE7-7C5A4947C2BD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId14"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId9"/>
 </worksheet>
 </file>